--- a/capiq_data/in_process_data/IQ2004577.xlsx
+++ b/capiq_data/in_process_data/IQ2004577.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623BF6FC-21C9-443B-818E-247E4085EE3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C74576-FE22-4022-81D8-510DBC6C0778}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"508cae5b-4926-41b4-ad45-b5fe7bc5d487"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f58e3f8f-19d8-4ac8-a7ee-cd174bd41fd4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$81</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$81</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$81</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$81</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$81</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$81</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$81</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$81</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$81</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$81</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$81</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$81</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$81</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$81</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$81</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$81</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$81</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$81</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$81</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$81</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$81</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$81</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$81</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$81</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$81</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$81</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,200 +850,200 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>196.2</v>
+        <v>17.940999999999999</v>
       </c>
       <c r="D2">
-        <v>763.2</v>
+        <v>92.17</v>
       </c>
       <c r="E2">
-        <v>297.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>826</v>
+        <v>76.924999999999997</v>
       </c>
       <c r="G2">
-        <v>5387.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35046.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2104.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>420.5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.96099999999999997</v>
       </c>
       <c r="N2">
-        <v>4781.2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14917.9</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2537.1</v>
+        <v>9.69</v>
       </c>
       <c r="Q2">
-        <v>287</v>
+        <v>1.9690000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="S2">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>20128.2</v>
+        <v>163.67099999999999</v>
       </c>
       <c r="U2">
-        <v>855.2</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>393.4</v>
+        <v>24.1</v>
       </c>
       <c r="W2">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-66.7</v>
+        <v>-0.96099999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>47.6</v>
+        <v>-10.686999999999999</v>
       </c>
       <c r="AA2">
-        <v>196.2</v>
+        <v>17.940999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>456.6</v>
+        <v>18.763999999999999</v>
       </c>
       <c r="D3">
-        <v>831.6</v>
+        <v>95.266999999999996</v>
       </c>
       <c r="E3">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>831.6</v>
+        <v>80.33</v>
       </c>
       <c r="G3">
-        <v>4587.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>34709</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>58.4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2105.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-420.5</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3744.1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13852.9</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2105.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-190.5</v>
+        <v>5.2380000000000004</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>20856.099999999999</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>664.7</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>362.1</v>
+        <v>17.471</v>
       </c>
       <c r="W3">
-        <v>-93.6</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-511</v>
+        <v>-0.873</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-7.0039999999999996</v>
       </c>
       <c r="AA3">
-        <v>456.6</v>
+        <v>18.763999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>293.7</v>
+        <v>17.776</v>
       </c>
       <c r="D4">
-        <v>838.3</v>
+        <v>101.86</v>
       </c>
       <c r="E4">
-        <v>385.8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>838.3</v>
+        <v>85.531999999999996</v>
       </c>
       <c r="G4">
-        <v>5555.1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>35589.199999999997</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>39.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2105.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4522.7</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14616.1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2105.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>28.9</v>
+        <v>19.132999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>20973.1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>693.6</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>214</v>
+        <v>35.856000000000002</v>
       </c>
       <c r="W4">
-        <v>-93.9</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-156.5</v>
+        <v>-0.97899999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.3</v>
+        <v>-8.4169999999999998</v>
       </c>
       <c r="AA4">
-        <v>293.7</v>
+        <v>17.776</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>316.10000000000002</v>
+        <v>20.626999999999999</v>
       </c>
       <c r="D5">
-        <v>874.2</v>
+        <v>103.533</v>
       </c>
       <c r="E5">
-        <v>369.5</v>
+        <v>40.985999999999997</v>
       </c>
       <c r="F5">
-        <v>874.2</v>
+        <v>86.025000000000006</v>
       </c>
       <c r="G5">
-        <v>9091.2999999999993</v>
+        <v>1946.11</v>
       </c>
       <c r="H5">
-        <v>38887.599999999999</v>
+        <v>2066.8780000000002</v>
       </c>
       <c r="I5">
-        <v>40.700000000000003</v>
+        <v>23.834</v>
       </c>
       <c r="J5">
-        <v>2106.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>882.55499999999995</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1138,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7922.3</v>
+        <v>1801.845</v>
       </c>
       <c r="O5">
-        <v>17953.8</v>
+        <v>1818.5119999999999</v>
       </c>
       <c r="P5">
-        <v>2106.3000000000002</v>
+        <v>894.49900000000002</v>
       </c>
       <c r="Q5">
-        <v>135.69999999999999</v>
+        <v>12.106</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="T5">
-        <v>20933.8</v>
+        <v>248.36600000000001</v>
       </c>
       <c r="U5">
-        <v>829.3</v>
+        <v>69.100999999999999</v>
       </c>
       <c r="V5">
-        <v>423.7</v>
+        <v>43.142000000000003</v>
       </c>
       <c r="W5">
-        <v>-93.1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-247.2</v>
+        <v>-1.089</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="Z5">
-        <v>0.2</v>
+        <v>-21.745999999999999</v>
       </c>
       <c r="AA5">
-        <v>316.10000000000002</v>
+        <v>20.626999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>745.9</v>
+        <v>18.658999999999999</v>
       </c>
       <c r="D6">
-        <v>736.5</v>
+        <v>104.069</v>
       </c>
       <c r="E6">
-        <v>289.39999999999998</v>
+        <v>43.395000000000003</v>
       </c>
       <c r="F6">
-        <v>736.5</v>
+        <v>87.98</v>
       </c>
       <c r="G6">
-        <v>10945.8</v>
+        <v>1958.394</v>
       </c>
       <c r="H6">
-        <v>40758.699999999997</v>
+        <v>2086.3270000000002</v>
       </c>
       <c r="I6">
-        <v>31.1</v>
+        <v>16.021999999999998</v>
       </c>
       <c r="J6">
-        <v>2106.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>740.31200000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.337</v>
       </c>
       <c r="N6">
-        <v>9615.2000000000007</v>
+        <v>1802.3340000000001</v>
       </c>
       <c r="O6">
-        <v>19136.400000000001</v>
+        <v>1818.81</v>
       </c>
       <c r="P6">
-        <v>2106.8000000000002</v>
+        <v>746.053</v>
       </c>
       <c r="Q6">
-        <v>213</v>
+        <v>-3.1989999999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="S6">
-        <v>2740</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>21622.3</v>
+        <v>267.517</v>
       </c>
       <c r="U6">
-        <v>1042.3</v>
+        <v>65.902000000000001</v>
       </c>
       <c r="V6">
-        <v>346.5</v>
+        <v>18.984000000000002</v>
       </c>
       <c r="W6">
-        <v>-92.2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-90.9</v>
+        <v>-1.337</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="Z6">
-        <v>0.2</v>
+        <v>-8.859</v>
       </c>
       <c r="AA6">
-        <v>745.9</v>
+        <v>18.658999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>266.60000000000002</v>
+        <v>20.991</v>
       </c>
       <c r="D7">
-        <v>774.6</v>
+        <v>113.08</v>
       </c>
       <c r="E7">
-        <v>360</v>
+        <v>48.600999999999999</v>
       </c>
       <c r="F7">
-        <v>774.6</v>
+        <v>96.447000000000003</v>
       </c>
       <c r="G7">
-        <v>9354.6</v>
+        <v>2955.2190000000001</v>
       </c>
       <c r="H7">
-        <v>39289.1</v>
+        <v>3092.4740000000002</v>
       </c>
       <c r="I7">
-        <v>29</v>
+        <v>18.448</v>
       </c>
       <c r="J7">
-        <v>2107.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>846.23199999999997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>8109.9</v>
+        <v>2801.8359999999998</v>
       </c>
       <c r="O7">
-        <v>17670</v>
+        <v>2817.7429999999999</v>
       </c>
       <c r="P7">
-        <v>2107.1999999999998</v>
+        <v>850.79</v>
       </c>
       <c r="Q7">
-        <v>19.399999999999999</v>
+        <v>-17.795999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>21619.1</v>
+        <v>274.73099999999999</v>
       </c>
       <c r="U7">
-        <v>1061.7</v>
+        <v>48.106000000000002</v>
       </c>
       <c r="V7">
-        <v>395.6</v>
+        <v>27.916</v>
       </c>
       <c r="W7">
-        <v>-346.5</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-335.8</v>
+        <v>-18.989999999999998</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>4.5579999999999998</v>
       </c>
       <c r="Z7">
-        <v>-13.7</v>
+        <v>-6.0419999999999998</v>
       </c>
       <c r="AA7">
-        <v>266.60000000000002</v>
+        <v>20.991</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>244.9</v>
+        <v>22.898</v>
       </c>
       <c r="D8">
-        <v>795.9</v>
+        <v>129.649</v>
       </c>
       <c r="E8">
-        <v>336.9</v>
+        <v>46.691000000000003</v>
       </c>
       <c r="F8">
-        <v>795.9</v>
+        <v>111.58499999999999</v>
       </c>
       <c r="G8">
-        <v>8240.9</v>
+        <v>2723.7469999999998</v>
       </c>
       <c r="H8">
-        <v>37945.9</v>
+        <v>2863.83</v>
       </c>
       <c r="I8">
-        <v>38.700000000000003</v>
+        <v>16.218</v>
       </c>
       <c r="J8">
-        <v>2107.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>554.87</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1387,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>6659.5</v>
+        <v>2543.9929999999999</v>
       </c>
       <c r="O8">
-        <v>16247.5</v>
+        <v>2564.2600000000002</v>
       </c>
       <c r="P8">
-        <v>2107.6999999999998</v>
+        <v>558.10199999999998</v>
       </c>
       <c r="Q8">
-        <v>231.5</v>
+        <v>149.05799999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>21698.400000000001</v>
+        <v>299.57</v>
       </c>
       <c r="U8">
-        <v>1293.2</v>
+        <v>197.16399999999999</v>
       </c>
       <c r="V8">
-        <v>262.2</v>
+        <v>54.665999999999997</v>
       </c>
       <c r="W8">
-        <v>-147.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-142.9</v>
+        <v>-1.2430000000000001</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="Z8">
-        <v>-44.8</v>
+        <v>105.497</v>
       </c>
       <c r="AA8">
-        <v>244.9</v>
+        <v>22.898</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>218</v>
+        <v>31.518999999999998</v>
       </c>
       <c r="D9">
-        <v>683.2</v>
+        <v>122.28100000000001</v>
       </c>
       <c r="E9">
-        <v>296.89999999999998</v>
+        <v>50.865000000000002</v>
       </c>
       <c r="F9">
-        <v>683.2</v>
+        <v>104.098</v>
       </c>
       <c r="G9">
-        <v>10016.799999999999</v>
+        <v>3215.1309999999999</v>
       </c>
       <c r="H9">
-        <v>39858</v>
+        <v>3355.0160000000001</v>
       </c>
       <c r="I9">
-        <v>44.5</v>
+        <v>27.606999999999999</v>
       </c>
       <c r="J9">
-        <v>2136.5</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>749.6</v>
+        <v>985.5</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1470,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>8389.5</v>
+        <v>2889.4940000000001</v>
       </c>
       <c r="O9">
-        <v>18069.8</v>
+        <v>2908.877</v>
       </c>
       <c r="P9">
-        <v>2886.1</v>
+        <v>992.49699999999996</v>
       </c>
       <c r="Q9">
-        <v>723.7</v>
+        <v>142.096</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="T9">
-        <v>21788.2</v>
+        <v>446.13900000000001</v>
       </c>
       <c r="U9">
-        <v>2016.9</v>
+        <v>339.26</v>
       </c>
       <c r="V9">
-        <v>239.4</v>
+        <v>39.572000000000003</v>
       </c>
       <c r="W9">
-        <v>-150.1</v>
+        <v>-17.29</v>
       </c>
       <c r="X9">
-        <v>605.70000000000005</v>
+        <v>116.236</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="Z9">
-        <v>-56.7</v>
+        <v>0.1</v>
       </c>
       <c r="AA9">
-        <v>218</v>
+        <v>31.518999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>166.8</v>
+        <v>26.120999999999999</v>
       </c>
       <c r="D10">
-        <v>660.9</v>
+        <v>128.6</v>
       </c>
       <c r="E10">
-        <v>267.5</v>
+        <v>63.707999999999998</v>
       </c>
       <c r="F10">
-        <v>660.9</v>
+        <v>110.202</v>
       </c>
       <c r="G10">
-        <v>8717.9</v>
+        <v>2246.056</v>
       </c>
       <c r="H10">
-        <v>38863.199999999997</v>
+        <v>2386.6849999999999</v>
       </c>
       <c r="I10">
-        <v>41.7</v>
+        <v>27.222000000000001</v>
       </c>
       <c r="J10">
-        <v>2107.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>749.7</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-1.4650000000000001</v>
       </c>
       <c r="N10">
-        <v>7616.9</v>
+        <v>1898.46</v>
       </c>
       <c r="O10">
-        <v>17357.5</v>
+        <v>1918.3340000000001</v>
       </c>
       <c r="P10">
-        <v>2857.5</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="Q10">
-        <v>-412.2</v>
+        <v>17.693999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="S10">
-        <v>2600</v>
+        <v>1165</v>
       </c>
       <c r="T10">
-        <v>21505.7</v>
+        <v>468.351</v>
       </c>
       <c r="U10">
-        <v>1604.7</v>
+        <v>356.95400000000001</v>
       </c>
       <c r="V10">
-        <v>322.5</v>
+        <v>37.93</v>
       </c>
       <c r="W10">
-        <v>-580</v>
+        <v>-4.5629999999999997</v>
       </c>
       <c r="X10">
-        <v>-575.4</v>
+        <v>-6.0019999999999998</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="Z10">
-        <v>44.4</v>
+        <v>-3.4129999999999998</v>
       </c>
       <c r="AA10">
-        <v>166.8</v>
+        <v>26.120999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>235.8</v>
+        <v>35.012999999999998</v>
       </c>
       <c r="D11">
-        <v>718.6</v>
+        <v>144.29499999999999</v>
       </c>
       <c r="E11">
-        <v>309.2</v>
+        <v>69.316000000000003</v>
       </c>
       <c r="F11">
-        <v>718.6</v>
+        <v>126.819</v>
       </c>
       <c r="G11">
-        <v>12297.8</v>
+        <v>3496.7939999999999</v>
       </c>
       <c r="H11">
-        <v>42421.8</v>
+        <v>3640.25</v>
       </c>
       <c r="I11">
-        <v>31.3</v>
+        <v>29.172999999999998</v>
       </c>
       <c r="J11">
-        <v>1358</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>749.8</v>
+        <v>1057.9760000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11786.7</v>
+        <v>3115.1579999999999</v>
       </c>
       <c r="O11">
-        <v>20783.8</v>
+        <v>3135.2170000000001</v>
       </c>
       <c r="P11">
-        <v>2857</v>
+        <v>1058.624</v>
       </c>
       <c r="Q11">
-        <v>238.7</v>
+        <v>35.881</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="T11">
-        <v>21638</v>
+        <v>505.03300000000002</v>
       </c>
       <c r="U11">
-        <v>1843.4</v>
+        <v>392.83499999999998</v>
       </c>
       <c r="V11">
-        <v>396</v>
+        <v>52.557000000000002</v>
       </c>
       <c r="W11">
-        <v>-149.4</v>
+        <v>-4.5590000000000002</v>
       </c>
       <c r="X11">
-        <v>-136.30000000000001</v>
+        <v>-2.504</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="Z11">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>235.8</v>
+        <v>35.012999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>311.2</v>
+        <v>31.396999999999998</v>
       </c>
       <c r="D12">
-        <v>811</v>
+        <v>137.261</v>
       </c>
       <c r="E12">
-        <v>359.1</v>
+        <v>58.195</v>
       </c>
       <c r="F12">
-        <v>811</v>
+        <v>120.15300000000001</v>
       </c>
       <c r="G12">
-        <v>16924.599999999999</v>
+        <v>3654.6170000000002</v>
       </c>
       <c r="H12">
-        <v>46882.7</v>
+        <v>3795.607</v>
       </c>
       <c r="I12">
-        <v>37</v>
+        <v>17.821000000000002</v>
       </c>
       <c r="J12">
-        <v>1358.2</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16192.9</v>
+        <v>3240.3020000000001</v>
       </c>
       <c r="O12">
-        <v>25028.1</v>
+        <v>3258.5410000000002</v>
       </c>
       <c r="P12">
-        <v>2857.6</v>
+        <v>800.16499999999996</v>
       </c>
       <c r="Q12">
-        <v>124.6</v>
+        <v>-1.3009999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="T12">
-        <v>21854.6</v>
+        <v>537.06600000000003</v>
       </c>
       <c r="U12">
-        <v>1968</v>
+        <v>391.53399999999999</v>
       </c>
       <c r="V12">
-        <v>372.8</v>
+        <v>48.146999999999998</v>
       </c>
       <c r="W12">
-        <v>-150.4</v>
+        <v>-4.5940000000000003</v>
       </c>
       <c r="X12">
-        <v>-212.6</v>
+        <v>-4.6230000000000002</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-31.710999999999999</v>
       </c>
       <c r="AA12">
-        <v>311.2</v>
+        <v>31.396999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>236.7</v>
+        <v>29.600999999999999</v>
       </c>
       <c r="D13">
-        <v>714.6</v>
+        <v>134.62799999999999</v>
       </c>
       <c r="E13">
-        <v>311.89999999999998</v>
+        <v>55.237000000000002</v>
       </c>
       <c r="F13">
-        <v>714.6</v>
+        <v>116.94499999999999</v>
       </c>
       <c r="G13">
-        <v>19048.099999999999</v>
+        <v>4723.3789999999999</v>
       </c>
       <c r="H13">
-        <v>48979.9</v>
+        <v>4872.6360000000004</v>
       </c>
       <c r="I13">
-        <v>41</v>
+        <v>24.69</v>
       </c>
       <c r="J13">
-        <v>2107</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1004.4</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,247 +1802,247 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17213.2</v>
+        <v>4287.9750000000004</v>
       </c>
       <c r="O13">
-        <v>27002</v>
+        <v>4309.6409999999996</v>
       </c>
       <c r="P13">
-        <v>2856.7</v>
+        <v>1005.915</v>
       </c>
       <c r="Q13">
-        <v>97</v>
+        <v>-206.41</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1221</v>
       </c>
       <c r="T13">
-        <v>21977.9</v>
+        <v>562.995</v>
       </c>
       <c r="U13">
-        <v>2065</v>
+        <v>185.124</v>
       </c>
       <c r="V13">
-        <v>129.80000000000001</v>
+        <v>52.515000000000001</v>
       </c>
       <c r="W13">
-        <v>-149.80000000000001</v>
+        <v>-6.9139999999999997</v>
       </c>
       <c r="X13">
-        <v>-122.4</v>
+        <v>-5.1050000000000004</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.7</v>
+        <v>-228.911</v>
       </c>
       <c r="AA13">
-        <v>236.7</v>
+        <v>29.600999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>193.1</v>
+        <v>46.06</v>
       </c>
       <c r="D14">
-        <v>687</v>
+        <v>169.547</v>
       </c>
       <c r="E14">
-        <v>302.7</v>
+        <v>78.335999999999999</v>
       </c>
       <c r="F14">
-        <v>687</v>
+        <v>150.59299999999999</v>
       </c>
       <c r="G14">
-        <v>24405.599999999999</v>
+        <v>4833.9709999999995</v>
       </c>
       <c r="H14">
-        <v>54277.8</v>
+        <v>4983.1909999999998</v>
       </c>
       <c r="I14">
-        <v>36.200000000000003</v>
+        <v>13.394</v>
       </c>
       <c r="J14">
-        <v>2107.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1295.7059999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.48699999999999999</v>
       </c>
       <c r="N14">
-        <v>23311</v>
+        <v>4358.9979999999996</v>
       </c>
       <c r="O14">
-        <v>33117.300000000003</v>
+        <v>4380.1499999999996</v>
       </c>
       <c r="P14">
-        <v>2857.1</v>
+        <v>1295.7059999999999</v>
       </c>
       <c r="Q14">
-        <v>404.7</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="S14">
-        <v>2730</v>
+        <v>1238</v>
       </c>
       <c r="T14">
-        <v>21160.5</v>
+        <v>603.04100000000005</v>
       </c>
       <c r="U14">
-        <v>2469.6999999999998</v>
+        <v>187.98599999999999</v>
       </c>
       <c r="V14">
-        <v>381.9</v>
+        <v>40.341000000000001</v>
       </c>
       <c r="W14">
-        <v>-149.5</v>
+        <v>-8.5779999999999994</v>
       </c>
       <c r="X14">
-        <v>-134.69999999999999</v>
+        <v>-8.8580000000000005</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-4</v>
+        <v>-14.837999999999999</v>
       </c>
       <c r="AA14">
-        <v>193.1</v>
+        <v>46.06</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>266.8</v>
+        <v>57.283000000000001</v>
       </c>
       <c r="D15">
-        <v>777.4</v>
+        <v>190.53200000000001</v>
       </c>
       <c r="E15">
-        <v>344.6</v>
+        <v>81.647999999999996</v>
       </c>
       <c r="F15">
-        <v>777.4</v>
+        <v>171.04300000000001</v>
       </c>
       <c r="G15">
-        <v>23309.7</v>
+        <v>3576.058</v>
       </c>
       <c r="H15">
-        <v>53167.1</v>
+        <v>3733.3670000000002</v>
       </c>
       <c r="I15">
-        <v>43.1</v>
+        <v>17.245999999999999</v>
       </c>
       <c r="J15">
-        <v>2107.4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>739.59500000000003</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-750</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>22029.7</v>
+        <v>3020.4540000000002</v>
       </c>
       <c r="O15">
-        <v>31857</v>
+        <v>3040.7280000000001</v>
       </c>
       <c r="P15">
-        <v>2107.4</v>
+        <v>739.59500000000003</v>
       </c>
       <c r="Q15">
-        <v>-1416</v>
+        <v>34.357999999999997</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="T15">
-        <v>21310.1</v>
+        <v>692.63900000000001</v>
       </c>
       <c r="U15">
-        <v>1053.7</v>
+        <v>222.34399999999999</v>
       </c>
       <c r="V15">
-        <v>383</v>
+        <v>67.525999999999996</v>
       </c>
       <c r="W15">
-        <v>-1025</v>
+        <v>-8.8010000000000002</v>
       </c>
       <c r="X15">
-        <v>-1769.6</v>
+        <v>-8.3230000000000004</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.8</v>
+        <v>-2.09</v>
       </c>
       <c r="AA15">
-        <v>266.8</v>
+        <v>57.283000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>263.8</v>
+        <v>59.427999999999997</v>
       </c>
       <c r="D16">
-        <v>731.6</v>
+        <v>196.7</v>
       </c>
       <c r="E16">
-        <v>334.9</v>
+        <v>83.884</v>
       </c>
       <c r="F16">
-        <v>731.6</v>
+        <v>177.65899999999999</v>
       </c>
       <c r="G16">
-        <v>21731.200000000001</v>
+        <v>4138.3050000000003</v>
       </c>
       <c r="H16">
-        <v>51611.3</v>
+        <v>4295.72</v>
       </c>
       <c r="I16">
-        <v>32.1</v>
+        <v>16.68</v>
       </c>
       <c r="J16">
-        <v>2107.5</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1729.2159999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2051,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20376.7</v>
+        <v>3527.6350000000002</v>
       </c>
       <c r="O16">
-        <v>30145.9</v>
+        <v>3546.0709999999999</v>
       </c>
       <c r="P16">
-        <v>2107.5</v>
+        <v>1729.2159999999999</v>
       </c>
       <c r="Q16">
-        <v>-16.399999999999999</v>
+        <v>60.435000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="T16">
-        <v>21465.4</v>
+        <v>749.649</v>
       </c>
       <c r="U16">
-        <v>1037.3</v>
+        <v>282.779</v>
       </c>
       <c r="V16">
-        <v>171.7</v>
+        <v>119.52800000000001</v>
       </c>
       <c r="W16">
-        <v>-157.1</v>
+        <v>-8.8260000000000005</v>
       </c>
       <c r="X16">
-        <v>-147.19999999999999</v>
+        <v>-8.1280000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-33.716999999999999</v>
       </c>
       <c r="AA16">
-        <v>263.8</v>
+        <v>59.427999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>290</v>
+        <v>56.783999999999999</v>
       </c>
       <c r="D17">
-        <v>762.4</v>
+        <v>196.023</v>
       </c>
       <c r="E17">
-        <v>344.8</v>
+        <v>81.625</v>
       </c>
       <c r="F17">
-        <v>762.4</v>
+        <v>178.05</v>
       </c>
       <c r="G17">
-        <v>34166.400000000001</v>
+        <v>2698.2</v>
       </c>
       <c r="H17">
-        <v>63970.3</v>
+        <v>2857.4659999999999</v>
       </c>
       <c r="I17">
-        <v>35</v>
+        <v>23.045000000000002</v>
       </c>
       <c r="J17">
-        <v>2107.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1582.9849999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>32627.9</v>
+        <v>2025.623</v>
       </c>
       <c r="O17">
-        <v>42433.2</v>
+        <v>2044.8689999999999</v>
       </c>
       <c r="P17">
-        <v>2107.6999999999998</v>
+        <v>1582.9849999999999</v>
       </c>
       <c r="Q17">
-        <v>50.6</v>
+        <v>74.783000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="T17">
-        <v>21537.1</v>
+        <v>812.59699999999998</v>
       </c>
       <c r="U17">
-        <v>1087.9000000000001</v>
+        <v>357.56200000000001</v>
       </c>
       <c r="V17">
-        <v>234.2</v>
+        <v>101.411</v>
       </c>
       <c r="W17">
-        <v>-157.1</v>
+        <v>-8.8610000000000007</v>
       </c>
       <c r="X17">
-        <v>-146.30000000000001</v>
+        <v>-5.2229999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-10.5</v>
+        <v>-2.8279999999999998</v>
       </c>
       <c r="AA17">
-        <v>290</v>
+        <v>56.783999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>306.5</v>
+        <v>70.885000000000005</v>
       </c>
       <c r="D18">
-        <v>841.1</v>
+        <v>223.90600000000001</v>
       </c>
       <c r="E18">
-        <v>341.2</v>
+        <v>98.971000000000004</v>
       </c>
       <c r="F18">
-        <v>841.1</v>
+        <v>213.06899999999999</v>
       </c>
       <c r="G18">
-        <v>42545.3</v>
+        <v>3125.4270000000001</v>
       </c>
       <c r="H18">
-        <v>72241.5</v>
+        <v>3284.9259999999999</v>
       </c>
       <c r="I18">
-        <v>36.9</v>
+        <v>21.483000000000001</v>
       </c>
       <c r="J18">
-        <v>2107.9</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1637.3050000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>41531.199999999997</v>
+        <v>2386.5990000000002</v>
       </c>
       <c r="O18">
-        <v>51318</v>
+        <v>2407.0149999999999</v>
       </c>
       <c r="P18">
-        <v>2110.1999999999998</v>
+        <v>1637.3050000000001</v>
       </c>
       <c r="Q18">
-        <v>278.2</v>
+        <v>73.057000000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="S18">
-        <v>2680</v>
+        <v>1293</v>
       </c>
       <c r="T18">
-        <v>20923.5</v>
+        <v>877.91099999999994</v>
       </c>
       <c r="U18">
-        <v>1366.1</v>
+        <v>430.61900000000003</v>
       </c>
       <c r="V18">
-        <v>502.5</v>
+        <v>76.543000000000006</v>
       </c>
       <c r="W18">
-        <v>-157.6</v>
+        <v>-15.753</v>
       </c>
       <c r="X18">
-        <v>-132.80000000000001</v>
+        <v>-6.3090000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-55</v>
+        <v>18.692</v>
       </c>
       <c r="AA18">
-        <v>306.5</v>
+        <v>70.885000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>330.4</v>
+        <v>82.225999999999999</v>
       </c>
       <c r="D19">
-        <v>842.7</v>
+        <v>217.613</v>
       </c>
       <c r="E19">
-        <v>383.4</v>
+        <v>96.875</v>
       </c>
       <c r="F19">
-        <v>842.7</v>
+        <v>136.471</v>
       </c>
       <c r="G19">
-        <v>47486</v>
+        <v>3226.2449999999999</v>
       </c>
       <c r="H19">
-        <v>77128.399999999994</v>
+        <v>3397.5549999999998</v>
       </c>
       <c r="I19">
-        <v>34</v>
+        <v>26.492999999999999</v>
       </c>
       <c r="J19">
-        <v>2851.9</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1806.434</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>45495.1</v>
+        <v>2417.3719999999998</v>
       </c>
       <c r="O19">
-        <v>56032.9</v>
+        <v>2437.125</v>
       </c>
       <c r="P19">
-        <v>2851.9</v>
+        <v>1806.434</v>
       </c>
       <c r="Q19">
-        <v>328.7</v>
+        <v>68.349000000000004</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>21095.5</v>
+        <v>960.43</v>
       </c>
       <c r="U19">
-        <v>1694.8</v>
+        <v>498.96800000000002</v>
       </c>
       <c r="V19">
-        <v>418.9</v>
+        <v>81.941000000000003</v>
       </c>
       <c r="W19">
-        <v>-838.8</v>
+        <v>-15.782999999999999</v>
       </c>
       <c r="X19">
-        <v>-65.8</v>
+        <v>-4.0030000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>17.927</v>
       </c>
       <c r="AA19">
-        <v>330.4</v>
+        <v>82.225999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>265</v>
+        <v>77.465999999999994</v>
       </c>
       <c r="D20">
-        <v>820</v>
+        <v>225.70599999999999</v>
       </c>
       <c r="E20">
-        <v>399.9</v>
+        <v>107.188</v>
       </c>
       <c r="F20">
-        <v>820</v>
+        <v>180.20099999999999</v>
       </c>
       <c r="G20">
-        <v>44055.1</v>
+        <v>2774.759</v>
       </c>
       <c r="H20">
-        <v>73663.100000000006</v>
+        <v>2949.9409999999998</v>
       </c>
       <c r="I20">
-        <v>22.1</v>
+        <v>17.555</v>
       </c>
       <c r="J20">
-        <v>2241</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1222.6880000000001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2383,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>42432.6</v>
+        <v>1891.5309999999999</v>
       </c>
       <c r="O20">
-        <v>52404.3</v>
+        <v>1910.87</v>
       </c>
       <c r="P20">
-        <v>2241</v>
+        <v>1222.6880000000001</v>
       </c>
       <c r="Q20">
-        <v>-543.79999999999995</v>
+        <v>86.697000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1304</v>
       </c>
       <c r="T20">
-        <v>21258.799999999999</v>
+        <v>1039.0709999999999</v>
       </c>
       <c r="U20">
-        <v>1151</v>
+        <v>585.66499999999996</v>
       </c>
       <c r="V20">
-        <v>258.8</v>
+        <v>89.150999999999996</v>
       </c>
       <c r="W20">
-        <v>-167.9</v>
+        <v>-15.842000000000001</v>
       </c>
       <c r="X20">
-        <v>-825.9</v>
+        <v>-1.7949999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>52.6</v>
+        <v>18.908999999999999</v>
       </c>
       <c r="AA20">
-        <v>265</v>
+        <v>77.465999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>359.9</v>
+        <v>76.28</v>
       </c>
       <c r="D21">
-        <v>850.3</v>
+        <v>222.541</v>
       </c>
       <c r="E21">
-        <v>363.8</v>
+        <v>89.668999999999997</v>
       </c>
       <c r="F21">
-        <v>850.3</v>
+        <v>313.51400000000001</v>
       </c>
       <c r="G21">
-        <v>51458.8</v>
+        <v>3783.422</v>
       </c>
       <c r="H21">
-        <v>80949.600000000006</v>
+        <v>3969.3939999999998</v>
       </c>
       <c r="I21">
-        <v>38.1</v>
+        <v>23.553000000000001</v>
       </c>
       <c r="J21">
-        <v>2241.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2160.893</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>49598.8</v>
+        <v>2829.9270000000001</v>
       </c>
       <c r="O21">
-        <v>59572.800000000003</v>
+        <v>2850.71</v>
       </c>
       <c r="P21">
-        <v>2241.1999999999998</v>
+        <v>2160.893</v>
       </c>
       <c r="Q21">
-        <v>283.3</v>
+        <v>25.225999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="T21">
-        <v>21376.799999999999</v>
+        <v>1118.684</v>
       </c>
       <c r="U21">
-        <v>1434.3</v>
+        <v>610.89099999999996</v>
       </c>
       <c r="V21">
-        <v>463.5</v>
+        <v>100.59699999999999</v>
       </c>
       <c r="W21">
-        <v>-168.2</v>
+        <v>-15.882</v>
       </c>
       <c r="X21">
-        <v>-160</v>
+        <v>-0.46300000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>9.4</v>
+        <v>-51.204000000000001</v>
       </c>
       <c r="AA21">
-        <v>359.9</v>
+        <v>76.28</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>291.7</v>
+        <v>91.412999999999997</v>
       </c>
       <c r="D22">
-        <v>813.8</v>
+        <v>251.71700000000001</v>
       </c>
       <c r="E22">
-        <v>357.8</v>
+        <v>115.98399999999999</v>
       </c>
       <c r="F22">
-        <v>813.8</v>
+        <v>238.53700000000001</v>
       </c>
       <c r="G22">
-        <v>37904.5</v>
+        <v>4188.1840000000002</v>
       </c>
       <c r="H22">
-        <v>67359.399999999994</v>
+        <v>4391.0259999999998</v>
       </c>
       <c r="I22">
-        <v>28.7</v>
+        <v>16.402999999999999</v>
       </c>
       <c r="J22">
-        <v>2229.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2463.0430000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2549,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>36824.5</v>
+        <v>3163.0410000000002</v>
       </c>
       <c r="O22">
-        <v>46807.6</v>
+        <v>3185.8470000000002</v>
       </c>
       <c r="P22">
-        <v>2229.3000000000002</v>
+        <v>2463.0430000000001</v>
       </c>
       <c r="Q22">
-        <v>258.3</v>
+        <v>104.791</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="S22">
-        <v>2530</v>
+        <v>1355</v>
       </c>
       <c r="T22">
-        <v>20551.8</v>
+        <v>1205.1790000000001</v>
       </c>
       <c r="U22">
-        <v>1692.6</v>
+        <v>715.68200000000002</v>
       </c>
       <c r="V22">
-        <v>374.1</v>
+        <v>115.819</v>
       </c>
       <c r="W22">
-        <v>-168.5</v>
+        <v>-21.814</v>
       </c>
       <c r="X22">
-        <v>-155</v>
+        <v>-10.596</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>63.1</v>
+        <v>16.603000000000002</v>
       </c>
       <c r="AA22">
-        <v>291.7</v>
+        <v>91.412999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>367.8</v>
+        <v>109.533</v>
       </c>
       <c r="D23">
-        <v>934.2</v>
+        <v>282.209</v>
       </c>
       <c r="E23">
-        <v>389.3</v>
+        <v>128.68700000000001</v>
       </c>
       <c r="F23">
-        <v>934.2</v>
+        <v>275.27999999999997</v>
       </c>
       <c r="G23">
-        <v>39253.300000000003</v>
+        <v>3240.13</v>
       </c>
       <c r="H23">
-        <v>68768.2</v>
+        <v>3452.1640000000002</v>
       </c>
       <c r="I23">
-        <v>32.200000000000003</v>
+        <v>23.363</v>
       </c>
       <c r="J23">
-        <v>2229.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1487.2739999999999</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>37848.1</v>
+        <v>2114.1689999999999</v>
       </c>
       <c r="O23">
-        <v>47926.8</v>
+        <v>2140.3220000000001</v>
       </c>
       <c r="P23">
-        <v>2229.8000000000002</v>
+        <v>1487.2739999999999</v>
       </c>
       <c r="Q23">
-        <v>-546.6</v>
+        <v>66.462999999999994</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="T23">
-        <v>20841.400000000001</v>
+        <v>1311.8420000000001</v>
       </c>
       <c r="U23">
-        <v>1146</v>
+        <v>782.14499999999998</v>
       </c>
       <c r="V23">
-        <v>530</v>
+        <v>79.209000000000003</v>
       </c>
       <c r="W23">
-        <v>-1179.3</v>
+        <v>-21.844999999999999</v>
       </c>
       <c r="X23">
-        <v>-1049.3</v>
+        <v>-7.32</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-7.1</v>
+        <v>17.983000000000001</v>
       </c>
       <c r="AA23">
-        <v>367.8</v>
+        <v>109.533</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>320.10000000000002</v>
+        <v>103.8</v>
       </c>
       <c r="D24">
-        <v>906.4</v>
+        <v>274.70499999999998</v>
       </c>
       <c r="E24">
-        <v>427</v>
+        <v>125.995</v>
       </c>
       <c r="F24">
-        <v>906.4</v>
+        <v>268.31099999999998</v>
       </c>
       <c r="G24">
-        <v>38027.199999999997</v>
+        <v>3248.346</v>
       </c>
       <c r="H24">
-        <v>67625.600000000006</v>
+        <v>3495.6210000000001</v>
       </c>
       <c r="I24">
-        <v>35.6</v>
+        <v>25.815999999999999</v>
       </c>
       <c r="J24">
-        <v>2230.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1356.94</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,78 +2715,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>36419.800000000003</v>
+        <v>2046.69</v>
       </c>
       <c r="O24">
-        <v>46551.7</v>
+        <v>2074.5360000000001</v>
       </c>
       <c r="P24">
-        <v>2230.1999999999998</v>
+        <v>1356.94</v>
       </c>
       <c r="Q24">
-        <v>15.1</v>
+        <v>86.478999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1409</v>
       </c>
       <c r="T24">
-        <v>21073.9</v>
+        <v>1421.085</v>
       </c>
       <c r="U24">
-        <v>1161.0999999999999</v>
+        <v>868.62400000000002</v>
       </c>
       <c r="V24">
-        <v>223.7</v>
+        <v>148.72999999999999</v>
       </c>
       <c r="W24">
-        <v>-202.4</v>
+        <v>-21.92</v>
       </c>
       <c r="X24">
-        <v>-188.6</v>
+        <v>-0.84099999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.6</v>
+        <v>-24.619</v>
       </c>
       <c r="AA24">
-        <v>320.10000000000002</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>472.8</v>
+        <v>102.602</v>
       </c>
       <c r="D25">
-        <v>841.7</v>
+        <v>281.31599999999997</v>
       </c>
       <c r="E25">
-        <v>395.7</v>
+        <v>125.651</v>
       </c>
       <c r="F25">
-        <v>841.7</v>
+        <v>274.84300000000002</v>
       </c>
       <c r="G25">
-        <v>33776</v>
+        <v>4049.05</v>
       </c>
       <c r="H25">
-        <v>63251.3</v>
+        <v>4306.5050000000001</v>
       </c>
       <c r="I25">
-        <v>34.5</v>
+        <v>25.552</v>
       </c>
       <c r="J25">
-        <v>2230.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,81 +2798,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>31886.400000000001</v>
+        <v>2755.3539999999998</v>
       </c>
       <c r="O25">
-        <v>41986.400000000001</v>
+        <v>2787.413</v>
       </c>
       <c r="P25">
-        <v>2230.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>259.39999999999998</v>
+        <v>100.88</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="T25">
-        <v>21264.9</v>
+        <v>1519.0920000000001</v>
       </c>
       <c r="U25">
-        <v>1420.5</v>
+        <v>969.50400000000002</v>
       </c>
       <c r="V25">
-        <v>478.7</v>
+        <v>127.938</v>
       </c>
       <c r="W25">
-        <v>-202.6</v>
+        <v>-21.957999999999998</v>
       </c>
       <c r="X25">
-        <v>-202.8</v>
+        <v>-8.4659999999999993</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>6.8</v>
+        <v>18.928999999999998</v>
       </c>
       <c r="AA25">
-        <v>472.8</v>
+        <v>102.602</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>373.4</v>
+        <v>130.02799999999999</v>
       </c>
       <c r="D26">
-        <v>912.9</v>
+        <v>332.33100000000002</v>
       </c>
       <c r="E26">
-        <v>364.4</v>
+        <v>162.08099999999999</v>
       </c>
       <c r="F26">
-        <v>912.9</v>
+        <v>325.29599999999999</v>
       </c>
       <c r="G26">
-        <v>40031.5</v>
+        <v>4602.0659999999998</v>
       </c>
       <c r="H26">
-        <v>69369.399999999994</v>
+        <v>4886.5190000000002</v>
       </c>
       <c r="I26">
-        <v>26.2</v>
+        <v>30.954999999999998</v>
       </c>
       <c r="J26">
-        <v>2231.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2112.451</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2881,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>38945.599999999999</v>
+        <v>3221.6869999999999</v>
       </c>
       <c r="O26">
-        <v>49028.7</v>
+        <v>3260.7269999999999</v>
       </c>
       <c r="P26">
-        <v>2231.1999999999998</v>
+        <v>2112.451</v>
       </c>
       <c r="Q26">
-        <v>448.1</v>
+        <v>170.28899999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="S26">
-        <v>2700</v>
+        <v>1459</v>
       </c>
       <c r="T26">
-        <v>20340.7</v>
+        <v>1625.7919999999999</v>
       </c>
       <c r="U26">
-        <v>1868.6</v>
+        <v>1139.7929999999999</v>
       </c>
       <c r="V26">
-        <v>510.4</v>
+        <v>177.75700000000001</v>
       </c>
       <c r="W26">
-        <v>-202.9</v>
+        <v>-29.995000000000001</v>
       </c>
       <c r="X26">
-        <v>-179.8</v>
+        <v>-23.311</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>146.4</v>
+        <v>40.262999999999998</v>
       </c>
       <c r="AA26">
-        <v>373.4</v>
+        <v>130.02799999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>399.8</v>
+        <v>125.875</v>
       </c>
       <c r="D27">
-        <v>929.3</v>
+        <v>329.00900000000001</v>
       </c>
       <c r="E27">
-        <v>426.6</v>
+        <v>158.30099999999999</v>
       </c>
       <c r="F27">
-        <v>929.3</v>
+        <v>322.21499999999997</v>
       </c>
       <c r="G27">
-        <v>46368.5</v>
+        <v>4989.9250000000002</v>
       </c>
       <c r="H27">
-        <v>75476</v>
+        <v>5303.7330000000002</v>
       </c>
       <c r="I27">
-        <v>38.4</v>
+        <v>25.824000000000002</v>
       </c>
       <c r="J27">
-        <v>2231.6</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2435.8510000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>44804.800000000003</v>
+        <v>3512.7570000000001</v>
       </c>
       <c r="O27">
-        <v>54921.8</v>
+        <v>3562.9769999999999</v>
       </c>
       <c r="P27">
-        <v>2231.6</v>
+        <v>2435.8510000000001</v>
       </c>
       <c r="Q27">
-        <v>-580.1</v>
+        <v>35.154000000000003</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="T27">
-        <v>20554.2</v>
+        <v>1740.7560000000001</v>
       </c>
       <c r="U27">
-        <v>1287.8</v>
+        <v>1174.9469999999999</v>
       </c>
       <c r="V27">
-        <v>519.4</v>
+        <v>83.034999999999997</v>
       </c>
       <c r="W27">
-        <v>-1322.6</v>
+        <v>-30.021999999999998</v>
       </c>
       <c r="X27">
-        <v>-1323.7</v>
+        <v>-17.984000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>244.2</v>
+        <v>16.431999999999999</v>
       </c>
       <c r="AA27">
-        <v>399.8</v>
+        <v>125.875</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>415.8</v>
+        <v>201.572</v>
       </c>
       <c r="D28">
-        <v>924.6</v>
+        <v>565.22199999999998</v>
       </c>
       <c r="E28">
-        <v>416.4</v>
+        <v>198.85300000000001</v>
       </c>
       <c r="F28">
-        <v>924.6</v>
+        <v>553.75099999999998</v>
       </c>
       <c r="G28">
-        <v>49496.9</v>
+        <v>4402.1360000000004</v>
       </c>
       <c r="H28">
-        <v>78543.8</v>
+        <v>19646.493999999999</v>
       </c>
       <c r="I28">
-        <v>25.5</v>
+        <v>52.823</v>
       </c>
       <c r="J28">
-        <v>2232.1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2708.3229999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>47669.599999999999</v>
+        <v>3647.4690000000001</v>
       </c>
       <c r="O28">
-        <v>57767</v>
+        <v>7535.0990000000002</v>
       </c>
       <c r="P28">
-        <v>2232.1</v>
+        <v>2708.3229999999999</v>
       </c>
       <c r="Q28">
-        <v>34.200000000000003</v>
+        <v>-497.91300000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="T28">
-        <v>20776.8</v>
+        <v>12111.395</v>
       </c>
       <c r="U28">
-        <v>1362.3</v>
+        <v>677.03399999999999</v>
       </c>
       <c r="V28">
-        <v>264</v>
+        <v>310.77</v>
       </c>
       <c r="W28">
-        <v>-223.5</v>
+        <v>-45.731999999999999</v>
       </c>
       <c r="X28">
-        <v>-210.4</v>
+        <v>-807.22299999999996</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-1.8</v>
+        <v>-14.968</v>
       </c>
       <c r="AA28">
-        <v>415.8</v>
+        <v>201.572</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>308.60000000000002</v>
+        <v>201.05799999999999</v>
       </c>
       <c r="D29">
-        <v>890.8</v>
+        <v>529.53899999999999</v>
       </c>
       <c r="E29">
-        <v>390.3</v>
+        <v>187.48699999999999</v>
       </c>
       <c r="F29">
-        <v>890.8</v>
+        <v>519.18799999999999</v>
       </c>
       <c r="G29">
-        <v>49392.5</v>
+        <v>4987.0550000000003</v>
       </c>
       <c r="H29">
-        <v>78323</v>
+        <v>20306.197</v>
       </c>
       <c r="I29">
-        <v>36.1</v>
+        <v>58.965000000000003</v>
       </c>
       <c r="J29">
-        <v>2232.6</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>164.435</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>47223</v>
+        <v>4076.0630000000001</v>
       </c>
       <c r="O29">
-        <v>57459.1</v>
+        <v>8000.56</v>
       </c>
       <c r="P29">
-        <v>2232.6</v>
+        <v>164.435</v>
       </c>
       <c r="Q29">
-        <v>268.89999999999998</v>
+        <v>168.27799999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="T29">
-        <v>20863.900000000001</v>
+        <v>12305.637000000001</v>
       </c>
       <c r="U29">
-        <v>1631.1</v>
+        <v>845.31200000000001</v>
       </c>
       <c r="V29">
-        <v>507.3</v>
+        <v>242.81200000000001</v>
       </c>
       <c r="W29">
-        <v>-223.5</v>
+        <v>-45.832999999999998</v>
       </c>
       <c r="X29">
-        <v>-234.4</v>
+        <v>-11.41</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>11.4</v>
+        <v>13.976000000000001</v>
       </c>
       <c r="AA29">
-        <v>308.60000000000002</v>
+        <v>201.05799999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>2939.2</v>
+        <v>283.5</v>
       </c>
       <c r="D30">
-        <v>900</v>
+        <v>625.1</v>
       </c>
       <c r="E30">
-        <v>359.7</v>
+        <v>251.98099999999999</v>
       </c>
       <c r="F30">
-        <v>900</v>
+        <v>611.6</v>
       </c>
       <c r="G30">
-        <v>46906.5</v>
+        <v>3182.1289999999999</v>
       </c>
       <c r="H30">
-        <v>75791.199999999997</v>
+        <v>19237.902999999998</v>
       </c>
       <c r="I30">
-        <v>31.3</v>
+        <v>51.804000000000002</v>
       </c>
       <c r="J30">
-        <v>2233.1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>164.952</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3213,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>45672.9</v>
+        <v>2185.2280000000001</v>
       </c>
       <c r="O30">
-        <v>53379.4</v>
+        <v>6061.0730000000003</v>
       </c>
       <c r="P30">
-        <v>2233.1</v>
+        <v>164.952</v>
       </c>
       <c r="Q30">
-        <v>222.7</v>
+        <v>221.1</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="S30">
-        <v>2830</v>
+        <v>1990</v>
       </c>
       <c r="T30">
-        <v>22411.8</v>
+        <v>13176.83</v>
       </c>
       <c r="U30">
-        <v>1903.6</v>
+        <v>1066.356</v>
       </c>
       <c r="V30">
-        <v>460.4</v>
+        <v>376.9</v>
       </c>
       <c r="W30">
-        <v>-223.9</v>
+        <v>-62.6</v>
       </c>
       <c r="X30">
-        <v>-216.8</v>
+        <v>-55.2</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>8</v>
+        <v>46.8</v>
       </c>
       <c r="AA30">
-        <v>2939.2</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>598.79999999999995</v>
+        <v>201.2</v>
       </c>
       <c r="D31">
-        <v>1109</v>
+        <v>563.20000000000005</v>
       </c>
       <c r="E31">
-        <v>444.1</v>
+        <v>237.346</v>
       </c>
       <c r="F31">
-        <v>1109</v>
+        <v>551.20000000000005</v>
       </c>
       <c r="G31">
-        <v>41054.800000000003</v>
+        <v>2500.8919999999998</v>
       </c>
       <c r="H31">
-        <v>69919.3</v>
+        <v>18562.632000000001</v>
       </c>
       <c r="I31">
-        <v>25</v>
+        <v>63.198</v>
       </c>
       <c r="J31">
-        <v>2233.5</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>164.93799999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>39445.300000000003</v>
+        <v>1346.77</v>
       </c>
       <c r="O31">
-        <v>47146.5</v>
+        <v>5234.2629999999999</v>
       </c>
       <c r="P31">
-        <v>2233.5</v>
+        <v>164.93799999999999</v>
       </c>
       <c r="Q31">
-        <v>-627.70000000000005</v>
+        <v>1.2</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="T31">
-        <v>22772.799999999999</v>
+        <v>13328.369000000001</v>
       </c>
       <c r="U31">
-        <v>784.6</v>
+        <v>1067.644</v>
       </c>
       <c r="V31">
-        <v>825</v>
+        <v>127.8</v>
       </c>
       <c r="W31">
-        <v>-1424.8</v>
+        <v>-62.7</v>
       </c>
       <c r="X31">
-        <v>-1435.3</v>
+        <v>-58.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>14.3</v>
       </c>
       <c r="AA31">
-        <v>598.79999999999995</v>
+        <v>201.2</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>566.1</v>
+        <v>168.7</v>
       </c>
       <c r="D32">
-        <v>1059.5999999999999</v>
+        <v>680.9</v>
       </c>
       <c r="E32">
-        <v>433.9</v>
+        <v>339.94099999999997</v>
       </c>
       <c r="F32">
-        <v>1059.5999999999999</v>
+        <v>661.6</v>
       </c>
       <c r="G32">
-        <v>40300.5</v>
+        <v>9558.3340000000007</v>
       </c>
       <c r="H32">
-        <v>69199.3</v>
+        <v>39255.052000000003</v>
       </c>
       <c r="I32">
-        <v>27.8</v>
+        <v>53.13</v>
       </c>
       <c r="J32">
-        <v>3419</v>
+        <v>2412.817</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>503.70299999999997</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>37179.599999999999</v>
+        <v>9608.6239999999998</v>
       </c>
       <c r="O32">
-        <v>46075.7</v>
+        <v>20226.292000000001</v>
       </c>
       <c r="P32">
-        <v>3419</v>
+        <v>2916.52</v>
       </c>
       <c r="Q32">
-        <v>1457.5</v>
+        <v>-485.2</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="T32">
-        <v>23123.599999999999</v>
+        <v>19028.759999999998</v>
       </c>
       <c r="U32">
-        <v>1098.9000000000001</v>
+        <v>582.42100000000005</v>
       </c>
       <c r="V32">
-        <v>522.79999999999995</v>
+        <v>358</v>
       </c>
       <c r="W32">
-        <v>-237.7</v>
+        <v>-77.400000000000006</v>
       </c>
       <c r="X32">
-        <v>925</v>
+        <v>2433.5</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>21.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AA32">
-        <v>566.1</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>411.8</v>
+        <v>62.1</v>
       </c>
       <c r="D33">
-        <v>904.2</v>
+        <v>691.8</v>
       </c>
       <c r="E33">
-        <v>386.3</v>
+        <v>234</v>
       </c>
       <c r="F33">
-        <v>904.2</v>
+        <v>666.3</v>
       </c>
       <c r="G33">
-        <v>41514.800000000003</v>
+        <v>19111.5</v>
       </c>
       <c r="H33">
-        <v>70364.100000000006</v>
+        <v>48158.7</v>
       </c>
       <c r="I33">
-        <v>53.9</v>
+        <v>71</v>
       </c>
       <c r="J33">
-        <v>3419.6</v>
+        <v>2966.1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>249.9</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,247 +3462,247 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>38154.1</v>
+        <v>18643</v>
       </c>
       <c r="O33">
-        <v>47068.4</v>
+        <v>29470.1</v>
       </c>
       <c r="P33">
-        <v>3419.6</v>
+        <v>3216</v>
       </c>
       <c r="Q33">
-        <v>293.89999999999998</v>
+        <v>-284.5</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="T33">
-        <v>23295.7</v>
+        <v>18688.599999999999</v>
       </c>
       <c r="U33">
-        <v>1406.3</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="V33">
-        <v>582.6</v>
+        <v>334.5</v>
       </c>
       <c r="W33">
-        <v>-237.6</v>
+        <v>-412.5</v>
       </c>
       <c r="X33">
-        <v>-257.5</v>
+        <v>-315.3</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.1</v>
+        <v>-191.2</v>
       </c>
       <c r="AA33">
-        <v>411.8</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>385.5</v>
+        <v>199.1</v>
       </c>
       <c r="D34">
-        <v>1236.5999999999999</v>
+        <v>647.1</v>
       </c>
       <c r="E34">
-        <v>553.29999999999995</v>
+        <v>279.5</v>
       </c>
       <c r="F34">
-        <v>1236.5999999999999</v>
+        <v>622.5</v>
       </c>
       <c r="G34">
-        <v>41886.699999999997</v>
+        <v>10900.9</v>
       </c>
       <c r="H34">
-        <v>77475.7</v>
+        <v>39915.5</v>
       </c>
       <c r="I34">
-        <v>116</v>
+        <v>46.5</v>
       </c>
       <c r="J34">
-        <v>3826.8</v>
+        <v>2848.2</v>
       </c>
       <c r="K34">
-        <v>574.20000000000005</v>
+        <v>249.9</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-858.8</v>
       </c>
       <c r="N34">
-        <v>41272.6</v>
+        <v>10474.6</v>
       </c>
       <c r="O34">
-        <v>51510.400000000001</v>
+        <v>21116.400000000001</v>
       </c>
       <c r="P34">
-        <v>4401</v>
+        <v>3098.1</v>
       </c>
       <c r="Q34">
-        <v>-1652.5</v>
+        <v>41.3</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="S34">
-        <v>4590</v>
+        <v>2280</v>
       </c>
       <c r="T34">
-        <v>25965.3</v>
+        <v>18799.099999999999</v>
       </c>
       <c r="U34">
-        <v>1374.5</v>
+        <v>339.2</v>
       </c>
       <c r="V34">
-        <v>510.4</v>
+        <v>254.7</v>
       </c>
       <c r="W34">
-        <v>-249.8</v>
+        <v>-76.3</v>
       </c>
       <c r="X34">
-        <v>-312.2</v>
+        <v>-514.4</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.5</v>
+        <v>61.9</v>
       </c>
       <c r="AA34">
-        <v>385.5</v>
+        <v>199.1</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>496.9</v>
+        <v>221.8</v>
       </c>
       <c r="D35">
-        <v>1176.3</v>
+        <v>647.79999999999995</v>
       </c>
       <c r="E35">
-        <v>559.5</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="F35">
-        <v>1176.3</v>
+        <v>626.1</v>
       </c>
       <c r="G35">
-        <v>35605.199999999997</v>
+        <v>9512.4</v>
       </c>
       <c r="H35">
-        <v>71614.5</v>
+        <v>38531.199999999997</v>
       </c>
       <c r="I35">
-        <v>65.3</v>
+        <v>38.5</v>
       </c>
       <c r="J35">
-        <v>4292</v>
+        <v>2738.6</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-569.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>34272.400000000001</v>
+        <v>9006.7000000000007</v>
       </c>
       <c r="O35">
-        <v>45428</v>
+        <v>19549.900000000001</v>
       </c>
       <c r="P35">
-        <v>5039.3</v>
+        <v>2988.6</v>
       </c>
       <c r="Q35">
-        <v>-377.1</v>
+        <v>109.5</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="T35">
-        <v>26186.5</v>
+        <v>18981.3</v>
       </c>
       <c r="U35">
-        <v>997.4</v>
+        <v>448.7</v>
       </c>
       <c r="V35">
-        <v>669.2</v>
+        <v>183.7</v>
       </c>
       <c r="W35">
-        <v>-892.1</v>
+        <v>-76.3</v>
       </c>
       <c r="X35">
-        <v>-997.7</v>
+        <v>-331.1</v>
       </c>
       <c r="Y35">
-        <v>695.2</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.5</v>
+        <v>149.1</v>
       </c>
       <c r="AA35">
-        <v>496.9</v>
+        <v>221.8</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>513.79999999999995</v>
+        <v>202.3</v>
       </c>
       <c r="D36">
-        <v>1271</v>
+        <v>650.4</v>
       </c>
       <c r="E36">
-        <v>593.70000000000005</v>
+        <v>264</v>
       </c>
       <c r="F36">
-        <v>1271</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="G36">
-        <v>34462.400000000001</v>
+        <v>7506.2</v>
       </c>
       <c r="H36">
-        <v>70349.5</v>
+        <v>36519.599999999999</v>
       </c>
       <c r="I36">
-        <v>51.6</v>
+        <v>36.1</v>
       </c>
       <c r="J36">
-        <v>4072.9</v>
+        <v>2239.3000000000002</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>299.7</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3711,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>32934.699999999997</v>
+        <v>7318.4</v>
       </c>
       <c r="O36">
-        <v>43864.6</v>
+        <v>17389.3</v>
       </c>
       <c r="P36">
-        <v>4742.6000000000004</v>
+        <v>2539</v>
       </c>
       <c r="Q36">
-        <v>-57.2</v>
+        <v>-244.6</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="T36">
-        <v>26484.9</v>
+        <v>19130.3</v>
       </c>
       <c r="U36">
-        <v>937.7</v>
+        <v>204.1</v>
       </c>
       <c r="V36">
-        <v>473.7</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="W36">
-        <v>-267.8</v>
+        <v>-76.400000000000006</v>
       </c>
       <c r="X36">
-        <v>-489.6</v>
+        <v>-525.5</v>
       </c>
       <c r="Y36">
-        <v>619.5</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>31.2</v>
+        <v>15.4</v>
       </c>
       <c r="AA36">
-        <v>513.79999999999995</v>
+        <v>202.3</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>636.29999999999995</v>
+        <v>202.6</v>
       </c>
       <c r="D37">
-        <v>1275.3</v>
+        <v>667.5</v>
       </c>
       <c r="E37">
-        <v>545.70000000000005</v>
+        <v>248.3</v>
       </c>
       <c r="F37">
-        <v>1275.3</v>
+        <v>645.79999999999995</v>
       </c>
       <c r="G37">
-        <v>43692.3</v>
+        <v>6699</v>
       </c>
       <c r="H37">
-        <v>79417.600000000006</v>
+        <v>35651</v>
       </c>
       <c r="I37">
-        <v>61.5</v>
+        <v>46.7</v>
       </c>
       <c r="J37">
-        <v>3873.3</v>
+        <v>2021.7</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>299.8</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>41913.5</v>
+        <v>6523.6</v>
       </c>
       <c r="O37">
-        <v>52604.3</v>
+        <v>16350</v>
       </c>
       <c r="P37">
-        <v>4525</v>
+        <v>2340.8000000000002</v>
       </c>
       <c r="Q37">
-        <v>273.2</v>
+        <v>56.5</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2260</v>
       </c>
       <c r="T37">
-        <v>26813.3</v>
+        <v>19301</v>
       </c>
       <c r="U37">
-        <v>1210.0999999999999</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="V37">
-        <v>810.2</v>
+        <v>345.3</v>
       </c>
       <c r="W37">
-        <v>-267.89999999999998</v>
+        <v>-76.599999999999994</v>
       </c>
       <c r="X37">
-        <v>-490.2</v>
+        <v>-294.2</v>
       </c>
       <c r="Y37">
-        <v>602.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>10.8</v>
+        <v>50.4</v>
       </c>
       <c r="AA37">
-        <v>636.29999999999995</v>
+        <v>202.6</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>469.5</v>
+        <v>240.2</v>
       </c>
       <c r="D38">
-        <v>1135.5</v>
+        <v>693.2</v>
       </c>
       <c r="E38">
-        <v>491.8</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="F38">
-        <v>1135.5</v>
+        <v>672.1</v>
       </c>
       <c r="G38">
-        <v>39567.800000000003</v>
+        <v>5483</v>
       </c>
       <c r="H38">
-        <v>75215.3</v>
+        <v>35202.400000000001</v>
       </c>
       <c r="I38">
-        <v>61.9</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J38">
-        <v>3743.2</v>
+        <v>2823.8</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3877,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>38522.5</v>
+        <v>5163.8999999999996</v>
       </c>
       <c r="O38">
-        <v>49056</v>
+        <v>15945.4</v>
       </c>
       <c r="P38">
-        <v>4399.2</v>
+        <v>3123.7</v>
       </c>
       <c r="Q38">
-        <v>340.5</v>
+        <v>183.6</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="S38">
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>26159.3</v>
+        <v>19257</v>
       </c>
       <c r="U38">
-        <v>1551.4</v>
+        <v>444.2</v>
       </c>
       <c r="V38">
-        <v>719.7</v>
+        <v>355.7</v>
       </c>
       <c r="W38">
-        <v>-268.10000000000002</v>
+        <v>-75.900000000000006</v>
       </c>
       <c r="X38">
-        <v>-363.3</v>
+        <v>-152.30000000000001</v>
       </c>
       <c r="Y38">
-        <v>606.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>50.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA38">
-        <v>469.5</v>
+        <v>240.2</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>766.2</v>
+        <v>270.7</v>
       </c>
       <c r="D39">
-        <v>1518.5</v>
+        <v>813.9</v>
       </c>
       <c r="E39">
-        <v>799.7</v>
+        <v>330.8</v>
       </c>
       <c r="F39">
-        <v>1518.5</v>
+        <v>792.7</v>
       </c>
       <c r="G39">
-        <v>102416.6</v>
+        <v>4602</v>
       </c>
       <c r="H39">
-        <v>137932.29999999999</v>
+        <v>34258.9</v>
       </c>
       <c r="I39">
-        <v>74.3</v>
+        <v>37.6</v>
       </c>
       <c r="J39">
-        <v>3539.8</v>
+        <v>2524.4</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-204.6</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>101053.7</v>
+        <v>4334.3</v>
       </c>
       <c r="O39">
-        <v>111333.6</v>
+        <v>14807.5</v>
       </c>
       <c r="P39">
-        <v>4174.8</v>
+        <v>2824.4</v>
       </c>
       <c r="Q39">
-        <v>-699.8</v>
+        <v>-80.599999999999994</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>26598.7</v>
+        <v>19451.400000000001</v>
       </c>
       <c r="U39">
-        <v>851.7</v>
+        <v>363.6</v>
       </c>
       <c r="V39">
-        <v>757.1</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="W39">
-        <v>-1197.5999999999999</v>
+        <v>-75.599999999999994</v>
       </c>
       <c r="X39">
-        <v>-1413.9</v>
+        <v>-386.1</v>
       </c>
       <c r="Y39">
-        <v>585.9</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA39">
-        <v>766.2</v>
+        <v>270.7</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>503.3</v>
+        <v>244.3</v>
       </c>
       <c r="D40">
-        <v>1179.2</v>
+        <v>733.4</v>
       </c>
       <c r="E40">
-        <v>532.1</v>
+        <v>333.4</v>
       </c>
       <c r="F40">
-        <v>1179.2</v>
+        <v>712.9</v>
       </c>
       <c r="G40">
-        <v>81786.2</v>
+        <v>4049.2</v>
       </c>
       <c r="H40">
-        <v>117214.8</v>
+        <v>33686.5</v>
       </c>
       <c r="I40">
-        <v>88</v>
+        <v>43.8</v>
       </c>
       <c r="J40">
-        <v>3440.9</v>
+        <v>2104.4</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>420.5</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4043,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>80201.399999999994</v>
+        <v>3666.2</v>
       </c>
       <c r="O40">
-        <v>90375.9</v>
+        <v>13717.9</v>
       </c>
       <c r="P40">
-        <v>4063.4</v>
+        <v>2524.9</v>
       </c>
       <c r="Q40">
-        <v>553.70000000000005</v>
+        <v>204.6</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>26838.9</v>
+        <v>19968.599999999999</v>
       </c>
       <c r="U40">
-        <v>1405.4</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="V40">
-        <v>986.8</v>
+        <v>313.89999999999998</v>
       </c>
       <c r="W40">
-        <v>-304</v>
+        <v>-76.8</v>
       </c>
       <c r="X40">
-        <v>-396.6</v>
+        <v>-48.3</v>
       </c>
       <c r="Y40">
-        <v>574.5</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-0.1</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="AA40">
-        <v>503.3</v>
+        <v>244.3</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>411.7</v>
+        <v>196.2</v>
       </c>
       <c r="D41">
-        <v>1077.3</v>
+        <v>763.2</v>
       </c>
       <c r="E41">
-        <v>490.9</v>
+        <v>297.5</v>
       </c>
       <c r="F41">
-        <v>1077.3</v>
+        <v>826</v>
       </c>
       <c r="G41">
-        <v>90349.3</v>
+        <v>5387.5</v>
       </c>
       <c r="H41">
-        <v>125758.8</v>
+        <v>35046.1</v>
       </c>
       <c r="I41">
-        <v>99.5</v>
+        <v>51.8</v>
       </c>
       <c r="J41">
-        <v>3442.2</v>
+        <v>2104.8000000000002</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>420.5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4126,3365 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>88630.9</v>
+        <v>4781.2</v>
       </c>
       <c r="O41">
-        <v>98748.4</v>
+        <v>14917.9</v>
       </c>
       <c r="P41">
-        <v>4074.3</v>
+        <v>2537.1</v>
       </c>
       <c r="Q41">
-        <v>-73.2</v>
+        <v>287</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>2570</v>
       </c>
       <c r="T41">
-        <v>27010.400000000001</v>
+        <v>20128.2</v>
       </c>
       <c r="U41">
-        <v>1332.1</v>
+        <v>855.2</v>
       </c>
       <c r="V41">
-        <v>311.39999999999998</v>
+        <v>393.4</v>
       </c>
       <c r="W41">
-        <v>-304.10000000000002</v>
+        <v>-77</v>
       </c>
       <c r="X41">
-        <v>-340.7</v>
+        <v>-66.7</v>
       </c>
       <c r="Y41">
-        <v>581.9</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>4.4000000000000004</v>
+        <v>47.6</v>
       </c>
       <c r="AA41">
-        <v>411.7</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40633</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>456.6</v>
+      </c>
+      <c r="D42">
+        <v>831.6</v>
+      </c>
+      <c r="E42">
+        <v>394</v>
+      </c>
+      <c r="F42">
+        <v>831.6</v>
+      </c>
+      <c r="G42">
+        <v>4587.6000000000004</v>
+      </c>
+      <c r="H42">
+        <v>34709</v>
+      </c>
+      <c r="I42">
+        <v>58.4</v>
+      </c>
+      <c r="J42">
+        <v>2105.3000000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>-420.5</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3744.1</v>
+      </c>
+      <c r="O42">
+        <v>13852.9</v>
+      </c>
+      <c r="P42">
+        <v>2105.3000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>-190.5</v>
+      </c>
+      <c r="R42">
+        <v>40633</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>20856.099999999999</v>
+      </c>
+      <c r="U42">
+        <v>664.7</v>
+      </c>
+      <c r="V42">
+        <v>362.1</v>
+      </c>
+      <c r="W42">
+        <v>-93.6</v>
+      </c>
+      <c r="X42">
+        <v>-511</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.4</v>
+      </c>
+      <c r="AA42">
+        <v>456.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>293.7</v>
+      </c>
+      <c r="D43">
+        <v>838.3</v>
+      </c>
+      <c r="E43">
+        <v>385.8</v>
+      </c>
+      <c r="F43">
+        <v>838.3</v>
+      </c>
+      <c r="G43">
+        <v>5555.1</v>
+      </c>
+      <c r="H43">
+        <v>35589.199999999997</v>
+      </c>
+      <c r="I43">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J43">
+        <v>2105.8000000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4522.7</v>
+      </c>
+      <c r="O43">
+        <v>14616.1</v>
+      </c>
+      <c r="P43">
+        <v>2105.8000000000002</v>
+      </c>
+      <c r="Q43">
+        <v>28.9</v>
+      </c>
+      <c r="R43">
+        <v>40724</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>20973.1</v>
+      </c>
+      <c r="U43">
+        <v>693.6</v>
+      </c>
+      <c r="V43">
+        <v>214</v>
+      </c>
+      <c r="W43">
+        <v>-93.9</v>
+      </c>
+      <c r="X43">
+        <v>-156.5</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.3</v>
+      </c>
+      <c r="AA43">
+        <v>293.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="D44">
+        <v>874.2</v>
+      </c>
+      <c r="E44">
+        <v>369.5</v>
+      </c>
+      <c r="F44">
+        <v>874.2</v>
+      </c>
+      <c r="G44">
+        <v>9091.2999999999993</v>
+      </c>
+      <c r="H44">
+        <v>38887.599999999999</v>
+      </c>
+      <c r="I44">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J44">
+        <v>2106.3000000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>7922.3</v>
+      </c>
+      <c r="O44">
+        <v>17953.8</v>
+      </c>
+      <c r="P44">
+        <v>2106.3000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40816</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>20933.8</v>
+      </c>
+      <c r="U44">
+        <v>829.3</v>
+      </c>
+      <c r="V44">
+        <v>423.7</v>
+      </c>
+      <c r="W44">
+        <v>-93.1</v>
+      </c>
+      <c r="X44">
+        <v>-247.2</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.2</v>
+      </c>
+      <c r="AA44">
+        <v>316.10000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>745.9</v>
+      </c>
+      <c r="D45">
+        <v>736.5</v>
+      </c>
+      <c r="E45">
+        <v>289.39999999999998</v>
+      </c>
+      <c r="F45">
+        <v>736.5</v>
+      </c>
+      <c r="G45">
+        <v>10945.8</v>
+      </c>
+      <c r="H45">
+        <v>40758.699999999997</v>
+      </c>
+      <c r="I45">
+        <v>31.1</v>
+      </c>
+      <c r="J45">
+        <v>2106.8000000000002</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>9615.2000000000007</v>
+      </c>
+      <c r="O45">
+        <v>19136.400000000001</v>
+      </c>
+      <c r="P45">
+        <v>2106.8000000000002</v>
+      </c>
+      <c r="Q45">
+        <v>213</v>
+      </c>
+      <c r="R45">
+        <v>40908</v>
+      </c>
+      <c r="S45">
+        <v>2740</v>
+      </c>
+      <c r="T45">
+        <v>21622.3</v>
+      </c>
+      <c r="U45">
+        <v>1042.3</v>
+      </c>
+      <c r="V45">
+        <v>346.5</v>
+      </c>
+      <c r="W45">
+        <v>-92.2</v>
+      </c>
+      <c r="X45">
+        <v>-90.9</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.2</v>
+      </c>
+      <c r="AA45">
+        <v>745.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="D46">
+        <v>774.6</v>
+      </c>
+      <c r="E46">
+        <v>360</v>
+      </c>
+      <c r="F46">
+        <v>774.6</v>
+      </c>
+      <c r="G46">
+        <v>9354.6</v>
+      </c>
+      <c r="H46">
+        <v>39289.1</v>
+      </c>
+      <c r="I46">
+        <v>29</v>
+      </c>
+      <c r="J46">
+        <v>2107.1999999999998</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>8109.9</v>
+      </c>
+      <c r="O46">
+        <v>17670</v>
+      </c>
+      <c r="P46">
+        <v>2107.1999999999998</v>
+      </c>
+      <c r="Q46">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40999</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>21619.1</v>
+      </c>
+      <c r="U46">
+        <v>1061.7</v>
+      </c>
+      <c r="V46">
+        <v>395.6</v>
+      </c>
+      <c r="W46">
+        <v>-346.5</v>
+      </c>
+      <c r="X46">
+        <v>-335.8</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-13.7</v>
+      </c>
+      <c r="AA46">
+        <v>266.60000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>244.9</v>
+      </c>
+      <c r="D47">
+        <v>795.9</v>
+      </c>
+      <c r="E47">
+        <v>336.9</v>
+      </c>
+      <c r="F47">
+        <v>795.9</v>
+      </c>
+      <c r="G47">
+        <v>8240.9</v>
+      </c>
+      <c r="H47">
+        <v>37945.9</v>
+      </c>
+      <c r="I47">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="J47">
+        <v>2107.6999999999998</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>6659.5</v>
+      </c>
+      <c r="O47">
+        <v>16247.5</v>
+      </c>
+      <c r="P47">
+        <v>2107.6999999999998</v>
+      </c>
+      <c r="Q47">
+        <v>231.5</v>
+      </c>
+      <c r="R47">
+        <v>41090</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>21698.400000000001</v>
+      </c>
+      <c r="U47">
+        <v>1293.2</v>
+      </c>
+      <c r="V47">
+        <v>262.2</v>
+      </c>
+      <c r="W47">
+        <v>-147.69999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-142.9</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-44.8</v>
+      </c>
+      <c r="AA47">
+        <v>244.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>218</v>
+      </c>
+      <c r="D48">
+        <v>683.2</v>
+      </c>
+      <c r="E48">
+        <v>296.89999999999998</v>
+      </c>
+      <c r="F48">
+        <v>683.2</v>
+      </c>
+      <c r="G48">
+        <v>10016.799999999999</v>
+      </c>
+      <c r="H48">
+        <v>39858</v>
+      </c>
+      <c r="I48">
+        <v>44.5</v>
+      </c>
+      <c r="J48">
+        <v>2136.5</v>
+      </c>
+      <c r="K48">
+        <v>749.6</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>8389.5</v>
+      </c>
+      <c r="O48">
+        <v>18069.8</v>
+      </c>
+      <c r="P48">
+        <v>2886.1</v>
+      </c>
+      <c r="Q48">
+        <v>723.7</v>
+      </c>
+      <c r="R48">
+        <v>41182</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>21788.2</v>
+      </c>
+      <c r="U48">
+        <v>2016.9</v>
+      </c>
+      <c r="V48">
+        <v>239.4</v>
+      </c>
+      <c r="W48">
+        <v>-150.1</v>
+      </c>
+      <c r="X48">
+        <v>605.70000000000005</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-56.7</v>
+      </c>
+      <c r="AA48">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>166.8</v>
+      </c>
+      <c r="D49">
+        <v>660.9</v>
+      </c>
+      <c r="E49">
+        <v>267.5</v>
+      </c>
+      <c r="F49">
+        <v>660.9</v>
+      </c>
+      <c r="G49">
+        <v>8717.9</v>
+      </c>
+      <c r="H49">
+        <v>38863.199999999997</v>
+      </c>
+      <c r="I49">
+        <v>41.7</v>
+      </c>
+      <c r="J49">
+        <v>2107.8000000000002</v>
+      </c>
+      <c r="K49">
+        <v>749.7</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>7616.9</v>
+      </c>
+      <c r="O49">
+        <v>17357.5</v>
+      </c>
+      <c r="P49">
+        <v>2857.5</v>
+      </c>
+      <c r="Q49">
+        <v>-412.2</v>
+      </c>
+      <c r="R49">
+        <v>41274</v>
+      </c>
+      <c r="S49">
+        <v>2600</v>
+      </c>
+      <c r="T49">
+        <v>21505.7</v>
+      </c>
+      <c r="U49">
+        <v>1604.7</v>
+      </c>
+      <c r="V49">
+        <v>322.5</v>
+      </c>
+      <c r="W49">
+        <v>-580</v>
+      </c>
+      <c r="X49">
+        <v>-575.4</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>44.4</v>
+      </c>
+      <c r="AA49">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>235.8</v>
+      </c>
+      <c r="D50">
+        <v>718.6</v>
+      </c>
+      <c r="E50">
+        <v>309.2</v>
+      </c>
+      <c r="F50">
+        <v>718.6</v>
+      </c>
+      <c r="G50">
+        <v>12297.8</v>
+      </c>
+      <c r="H50">
+        <v>42421.8</v>
+      </c>
+      <c r="I50">
+        <v>31.3</v>
+      </c>
+      <c r="J50">
+        <v>1358</v>
+      </c>
+      <c r="K50">
+        <v>749.8</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>11786.7</v>
+      </c>
+      <c r="O50">
+        <v>20783.8</v>
+      </c>
+      <c r="P50">
+        <v>2857</v>
+      </c>
+      <c r="Q50">
+        <v>238.7</v>
+      </c>
+      <c r="R50">
+        <v>41364</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>21638</v>
+      </c>
+      <c r="U50">
+        <v>1843.4</v>
+      </c>
+      <c r="V50">
+        <v>396</v>
+      </c>
+      <c r="W50">
+        <v>-149.4</v>
+      </c>
+      <c r="X50">
+        <v>-136.30000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-0.8</v>
+      </c>
+      <c r="AA50">
+        <v>235.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>311.2</v>
+      </c>
+      <c r="D51">
+        <v>811</v>
+      </c>
+      <c r="E51">
+        <v>359.1</v>
+      </c>
+      <c r="F51">
+        <v>811</v>
+      </c>
+      <c r="G51">
+        <v>16924.599999999999</v>
+      </c>
+      <c r="H51">
+        <v>46882.7</v>
+      </c>
+      <c r="I51">
+        <v>37</v>
+      </c>
+      <c r="J51">
+        <v>1358.2</v>
+      </c>
+      <c r="K51">
+        <v>750</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>16192.9</v>
+      </c>
+      <c r="O51">
+        <v>25028.1</v>
+      </c>
+      <c r="P51">
+        <v>2857.6</v>
+      </c>
+      <c r="Q51">
+        <v>124.6</v>
+      </c>
+      <c r="R51">
+        <v>41455</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>21854.6</v>
+      </c>
+      <c r="U51">
+        <v>1968</v>
+      </c>
+      <c r="V51">
+        <v>372.8</v>
+      </c>
+      <c r="W51">
+        <v>-150.4</v>
+      </c>
+      <c r="X51">
+        <v>-212.6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>311.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>236.7</v>
+      </c>
+      <c r="D52">
+        <v>714.6</v>
+      </c>
+      <c r="E52">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="F52">
+        <v>714.6</v>
+      </c>
+      <c r="G52">
+        <v>19048.099999999999</v>
+      </c>
+      <c r="H52">
+        <v>48979.9</v>
+      </c>
+      <c r="I52">
+        <v>41</v>
+      </c>
+      <c r="J52">
+        <v>2107</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>17213.2</v>
+      </c>
+      <c r="O52">
+        <v>27002</v>
+      </c>
+      <c r="P52">
+        <v>2856.7</v>
+      </c>
+      <c r="Q52">
+        <v>97</v>
+      </c>
+      <c r="R52">
+        <v>41547</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>21977.9</v>
+      </c>
+      <c r="U52">
+        <v>2065</v>
+      </c>
+      <c r="V52">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="W52">
+        <v>-149.80000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-122.4</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.7</v>
+      </c>
+      <c r="AA52">
+        <v>236.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>193.1</v>
+      </c>
+      <c r="D53">
+        <v>687</v>
+      </c>
+      <c r="E53">
+        <v>302.7</v>
+      </c>
+      <c r="F53">
+        <v>687</v>
+      </c>
+      <c r="G53">
+        <v>24405.599999999999</v>
+      </c>
+      <c r="H53">
+        <v>54277.8</v>
+      </c>
+      <c r="I53">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J53">
+        <v>2107.1999999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>23311</v>
+      </c>
+      <c r="O53">
+        <v>33117.300000000003</v>
+      </c>
+      <c r="P53">
+        <v>2857.1</v>
+      </c>
+      <c r="Q53">
+        <v>404.7</v>
+      </c>
+      <c r="R53">
+        <v>41639</v>
+      </c>
+      <c r="S53">
+        <v>2730</v>
+      </c>
+      <c r="T53">
+        <v>21160.5</v>
+      </c>
+      <c r="U53">
+        <v>2469.6999999999998</v>
+      </c>
+      <c r="V53">
+        <v>381.9</v>
+      </c>
+      <c r="W53">
+        <v>-149.5</v>
+      </c>
+      <c r="X53">
+        <v>-134.69999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-4</v>
+      </c>
+      <c r="AA53">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>266.8</v>
+      </c>
+      <c r="D54">
+        <v>777.4</v>
+      </c>
+      <c r="E54">
+        <v>344.6</v>
+      </c>
+      <c r="F54">
+        <v>777.4</v>
+      </c>
+      <c r="G54">
+        <v>23309.7</v>
+      </c>
+      <c r="H54">
+        <v>53167.1</v>
+      </c>
+      <c r="I54">
+        <v>43.1</v>
+      </c>
+      <c r="J54">
+        <v>2107.4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-750</v>
+      </c>
+      <c r="N54">
+        <v>22029.7</v>
+      </c>
+      <c r="O54">
+        <v>31857</v>
+      </c>
+      <c r="P54">
+        <v>2107.4</v>
+      </c>
+      <c r="Q54">
+        <v>-1416</v>
+      </c>
+      <c r="R54">
+        <v>41729</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>21310.1</v>
+      </c>
+      <c r="U54">
+        <v>1053.7</v>
+      </c>
+      <c r="V54">
+        <v>383</v>
+      </c>
+      <c r="W54">
+        <v>-1025</v>
+      </c>
+      <c r="X54">
+        <v>-1769.6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-0.8</v>
+      </c>
+      <c r="AA54">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>263.8</v>
+      </c>
+      <c r="D55">
+        <v>731.6</v>
+      </c>
+      <c r="E55">
+        <v>334.9</v>
+      </c>
+      <c r="F55">
+        <v>731.6</v>
+      </c>
+      <c r="G55">
+        <v>21731.200000000001</v>
+      </c>
+      <c r="H55">
+        <v>51611.3</v>
+      </c>
+      <c r="I55">
+        <v>32.1</v>
+      </c>
+      <c r="J55">
+        <v>2107.5</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>20376.7</v>
+      </c>
+      <c r="O55">
+        <v>30145.9</v>
+      </c>
+      <c r="P55">
+        <v>2107.5</v>
+      </c>
+      <c r="Q55">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41820</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>21465.4</v>
+      </c>
+      <c r="U55">
+        <v>1037.3</v>
+      </c>
+      <c r="V55">
+        <v>171.7</v>
+      </c>
+      <c r="W55">
+        <v>-157.1</v>
+      </c>
+      <c r="X55">
+        <v>-147.19999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>263.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>290</v>
+      </c>
+      <c r="D56">
+        <v>762.4</v>
+      </c>
+      <c r="E56">
+        <v>344.8</v>
+      </c>
+      <c r="F56">
+        <v>762.4</v>
+      </c>
+      <c r="G56">
+        <v>34166.400000000001</v>
+      </c>
+      <c r="H56">
+        <v>63970.3</v>
+      </c>
+      <c r="I56">
+        <v>35</v>
+      </c>
+      <c r="J56">
+        <v>2107.6999999999998</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>32627.9</v>
+      </c>
+      <c r="O56">
+        <v>42433.2</v>
+      </c>
+      <c r="P56">
+        <v>2107.6999999999998</v>
+      </c>
+      <c r="Q56">
+        <v>50.6</v>
+      </c>
+      <c r="R56">
+        <v>41912</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>21537.1</v>
+      </c>
+      <c r="U56">
+        <v>1087.9000000000001</v>
+      </c>
+      <c r="V56">
+        <v>234.2</v>
+      </c>
+      <c r="W56">
+        <v>-157.1</v>
+      </c>
+      <c r="X56">
+        <v>-146.30000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-10.5</v>
+      </c>
+      <c r="AA56">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>306.5</v>
+      </c>
+      <c r="D57">
+        <v>841.1</v>
+      </c>
+      <c r="E57">
+        <v>341.2</v>
+      </c>
+      <c r="F57">
+        <v>841.1</v>
+      </c>
+      <c r="G57">
+        <v>42545.3</v>
+      </c>
+      <c r="H57">
+        <v>72241.5</v>
+      </c>
+      <c r="I57">
+        <v>36.9</v>
+      </c>
+      <c r="J57">
+        <v>2107.9</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>41531.199999999997</v>
+      </c>
+      <c r="O57">
+        <v>51318</v>
+      </c>
+      <c r="P57">
+        <v>2110.1999999999998</v>
+      </c>
+      <c r="Q57">
+        <v>278.2</v>
+      </c>
+      <c r="R57">
+        <v>42004</v>
+      </c>
+      <c r="S57">
+        <v>2680</v>
+      </c>
+      <c r="T57">
+        <v>20923.5</v>
+      </c>
+      <c r="U57">
+        <v>1366.1</v>
+      </c>
+      <c r="V57">
+        <v>502.5</v>
+      </c>
+      <c r="W57">
+        <v>-157.6</v>
+      </c>
+      <c r="X57">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-55</v>
+      </c>
+      <c r="AA57">
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>330.4</v>
+      </c>
+      <c r="D58">
+        <v>842.7</v>
+      </c>
+      <c r="E58">
+        <v>383.4</v>
+      </c>
+      <c r="F58">
+        <v>842.7</v>
+      </c>
+      <c r="G58">
+        <v>47486</v>
+      </c>
+      <c r="H58">
+        <v>77128.399999999994</v>
+      </c>
+      <c r="I58">
+        <v>34</v>
+      </c>
+      <c r="J58">
+        <v>2851.9</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>45495.1</v>
+      </c>
+      <c r="O58">
+        <v>56032.9</v>
+      </c>
+      <c r="P58">
+        <v>2851.9</v>
+      </c>
+      <c r="Q58">
+        <v>328.7</v>
+      </c>
+      <c r="R58">
+        <v>42094</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>21095.5</v>
+      </c>
+      <c r="U58">
+        <v>1694.8</v>
+      </c>
+      <c r="V58">
+        <v>418.9</v>
+      </c>
+      <c r="W58">
+        <v>-838.8</v>
+      </c>
+      <c r="X58">
+        <v>-65.8</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>330.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>265</v>
+      </c>
+      <c r="D59">
+        <v>820</v>
+      </c>
+      <c r="E59">
+        <v>399.9</v>
+      </c>
+      <c r="F59">
+        <v>820</v>
+      </c>
+      <c r="G59">
+        <v>44055.1</v>
+      </c>
+      <c r="H59">
+        <v>73663.100000000006</v>
+      </c>
+      <c r="I59">
+        <v>22.1</v>
+      </c>
+      <c r="J59">
+        <v>2241</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>42432.6</v>
+      </c>
+      <c r="O59">
+        <v>52404.3</v>
+      </c>
+      <c r="P59">
+        <v>2241</v>
+      </c>
+      <c r="Q59">
+        <v>-543.79999999999995</v>
+      </c>
+      <c r="R59">
+        <v>42185</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>21258.799999999999</v>
+      </c>
+      <c r="U59">
+        <v>1151</v>
+      </c>
+      <c r="V59">
+        <v>258.8</v>
+      </c>
+      <c r="W59">
+        <v>-167.9</v>
+      </c>
+      <c r="X59">
+        <v>-825.9</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>52.6</v>
+      </c>
+      <c r="AA59">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>359.9</v>
+      </c>
+      <c r="D60">
+        <v>850.3</v>
+      </c>
+      <c r="E60">
+        <v>363.8</v>
+      </c>
+      <c r="F60">
+        <v>850.3</v>
+      </c>
+      <c r="G60">
+        <v>51458.8</v>
+      </c>
+      <c r="H60">
+        <v>80949.600000000006</v>
+      </c>
+      <c r="I60">
+        <v>38.1</v>
+      </c>
+      <c r="J60">
+        <v>2241.1999999999998</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>49598.8</v>
+      </c>
+      <c r="O60">
+        <v>59572.800000000003</v>
+      </c>
+      <c r="P60">
+        <v>2241.1999999999998</v>
+      </c>
+      <c r="Q60">
+        <v>283.3</v>
+      </c>
+      <c r="R60">
+        <v>42277</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>21376.799999999999</v>
+      </c>
+      <c r="U60">
+        <v>1434.3</v>
+      </c>
+      <c r="V60">
+        <v>463.5</v>
+      </c>
+      <c r="W60">
+        <v>-168.2</v>
+      </c>
+      <c r="X60">
+        <v>-160</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>9.4</v>
+      </c>
+      <c r="AA60">
+        <v>359.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>291.7</v>
+      </c>
+      <c r="D61">
+        <v>813.8</v>
+      </c>
+      <c r="E61">
+        <v>357.8</v>
+      </c>
+      <c r="F61">
+        <v>813.8</v>
+      </c>
+      <c r="G61">
+        <v>37904.5</v>
+      </c>
+      <c r="H61">
+        <v>67359.399999999994</v>
+      </c>
+      <c r="I61">
+        <v>28.7</v>
+      </c>
+      <c r="J61">
+        <v>2229.3000000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>36824.5</v>
+      </c>
+      <c r="O61">
+        <v>46807.6</v>
+      </c>
+      <c r="P61">
+        <v>2229.3000000000002</v>
+      </c>
+      <c r="Q61">
+        <v>258.3</v>
+      </c>
+      <c r="R61">
+        <v>42369</v>
+      </c>
+      <c r="S61">
+        <v>2530</v>
+      </c>
+      <c r="T61">
+        <v>20551.8</v>
+      </c>
+      <c r="U61">
+        <v>1692.6</v>
+      </c>
+      <c r="V61">
+        <v>374.1</v>
+      </c>
+      <c r="W61">
+        <v>-168.5</v>
+      </c>
+      <c r="X61">
+        <v>-155</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>63.1</v>
+      </c>
+      <c r="AA61">
+        <v>291.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>367.8</v>
+      </c>
+      <c r="D62">
+        <v>934.2</v>
+      </c>
+      <c r="E62">
+        <v>389.3</v>
+      </c>
+      <c r="F62">
+        <v>934.2</v>
+      </c>
+      <c r="G62">
+        <v>39253.300000000003</v>
+      </c>
+      <c r="H62">
+        <v>68768.2</v>
+      </c>
+      <c r="I62">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J62">
+        <v>2229.8000000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>37848.1</v>
+      </c>
+      <c r="O62">
+        <v>47926.8</v>
+      </c>
+      <c r="P62">
+        <v>2229.8000000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-546.6</v>
+      </c>
+      <c r="R62">
+        <v>42460</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>20841.400000000001</v>
+      </c>
+      <c r="U62">
+        <v>1146</v>
+      </c>
+      <c r="V62">
+        <v>530</v>
+      </c>
+      <c r="W62">
+        <v>-1179.3</v>
+      </c>
+      <c r="X62">
+        <v>-1049.3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-7.1</v>
+      </c>
+      <c r="AA62">
+        <v>367.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="D63">
+        <v>906.4</v>
+      </c>
+      <c r="E63">
+        <v>427</v>
+      </c>
+      <c r="F63">
+        <v>906.4</v>
+      </c>
+      <c r="G63">
+        <v>38027.199999999997</v>
+      </c>
+      <c r="H63">
+        <v>67625.600000000006</v>
+      </c>
+      <c r="I63">
+        <v>35.6</v>
+      </c>
+      <c r="J63">
+        <v>2230.1999999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>36419.800000000003</v>
+      </c>
+      <c r="O63">
+        <v>46551.7</v>
+      </c>
+      <c r="P63">
+        <v>2230.1999999999998</v>
+      </c>
+      <c r="Q63">
+        <v>15.1</v>
+      </c>
+      <c r="R63">
+        <v>42551</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>21073.9</v>
+      </c>
+      <c r="U63">
+        <v>1161.0999999999999</v>
+      </c>
+      <c r="V63">
+        <v>223.7</v>
+      </c>
+      <c r="W63">
+        <v>-202.4</v>
+      </c>
+      <c r="X63">
+        <v>-188.6</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-0.6</v>
+      </c>
+      <c r="AA63">
+        <v>320.10000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>472.8</v>
+      </c>
+      <c r="D64">
+        <v>841.7</v>
+      </c>
+      <c r="E64">
+        <v>395.7</v>
+      </c>
+      <c r="F64">
+        <v>841.7</v>
+      </c>
+      <c r="G64">
+        <v>33776</v>
+      </c>
+      <c r="H64">
+        <v>63251.3</v>
+      </c>
+      <c r="I64">
+        <v>34.5</v>
+      </c>
+      <c r="J64">
+        <v>2230.6999999999998</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>31886.400000000001</v>
+      </c>
+      <c r="O64">
+        <v>41986.400000000001</v>
+      </c>
+      <c r="P64">
+        <v>2230.6999999999998</v>
+      </c>
+      <c r="Q64">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="R64">
+        <v>42643</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>21264.9</v>
+      </c>
+      <c r="U64">
+        <v>1420.5</v>
+      </c>
+      <c r="V64">
+        <v>478.7</v>
+      </c>
+      <c r="W64">
+        <v>-202.6</v>
+      </c>
+      <c r="X64">
+        <v>-202.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>6.8</v>
+      </c>
+      <c r="AA64">
+        <v>472.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>373.4</v>
+      </c>
+      <c r="D65">
+        <v>912.9</v>
+      </c>
+      <c r="E65">
+        <v>364.4</v>
+      </c>
+      <c r="F65">
+        <v>912.9</v>
+      </c>
+      <c r="G65">
+        <v>40031.5</v>
+      </c>
+      <c r="H65">
+        <v>69369.399999999994</v>
+      </c>
+      <c r="I65">
+        <v>26.2</v>
+      </c>
+      <c r="J65">
+        <v>2231.1999999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>38945.599999999999</v>
+      </c>
+      <c r="O65">
+        <v>49028.7</v>
+      </c>
+      <c r="P65">
+        <v>2231.1999999999998</v>
+      </c>
+      <c r="Q65">
+        <v>448.1</v>
+      </c>
+      <c r="R65">
+        <v>42735</v>
+      </c>
+      <c r="S65">
+        <v>2700</v>
+      </c>
+      <c r="T65">
+        <v>20340.7</v>
+      </c>
+      <c r="U65">
+        <v>1868.6</v>
+      </c>
+      <c r="V65">
+        <v>510.4</v>
+      </c>
+      <c r="W65">
+        <v>-202.9</v>
+      </c>
+      <c r="X65">
+        <v>-179.8</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>146.4</v>
+      </c>
+      <c r="AA65">
+        <v>373.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>399.8</v>
+      </c>
+      <c r="D66">
+        <v>929.3</v>
+      </c>
+      <c r="E66">
+        <v>426.6</v>
+      </c>
+      <c r="F66">
+        <v>929.3</v>
+      </c>
+      <c r="G66">
+        <v>46368.5</v>
+      </c>
+      <c r="H66">
+        <v>75476</v>
+      </c>
+      <c r="I66">
+        <v>38.4</v>
+      </c>
+      <c r="J66">
+        <v>2231.6</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>44804.800000000003</v>
+      </c>
+      <c r="O66">
+        <v>54921.8</v>
+      </c>
+      <c r="P66">
+        <v>2231.6</v>
+      </c>
+      <c r="Q66">
+        <v>-580.1</v>
+      </c>
+      <c r="R66">
+        <v>42825</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>20554.2</v>
+      </c>
+      <c r="U66">
+        <v>1287.8</v>
+      </c>
+      <c r="V66">
+        <v>519.4</v>
+      </c>
+      <c r="W66">
+        <v>-1322.6</v>
+      </c>
+      <c r="X66">
+        <v>-1323.7</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>244.2</v>
+      </c>
+      <c r="AA66">
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>415.8</v>
+      </c>
+      <c r="D67">
+        <v>924.6</v>
+      </c>
+      <c r="E67">
+        <v>416.4</v>
+      </c>
+      <c r="F67">
+        <v>924.6</v>
+      </c>
+      <c r="G67">
+        <v>49496.9</v>
+      </c>
+      <c r="H67">
+        <v>78543.8</v>
+      </c>
+      <c r="I67">
+        <v>25.5</v>
+      </c>
+      <c r="J67">
+        <v>2232.1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>47669.599999999999</v>
+      </c>
+      <c r="O67">
+        <v>57767</v>
+      </c>
+      <c r="P67">
+        <v>2232.1</v>
+      </c>
+      <c r="Q67">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42916</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>20776.8</v>
+      </c>
+      <c r="U67">
+        <v>1362.3</v>
+      </c>
+      <c r="V67">
+        <v>264</v>
+      </c>
+      <c r="W67">
+        <v>-223.5</v>
+      </c>
+      <c r="X67">
+        <v>-210.4</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1.8</v>
+      </c>
+      <c r="AA67">
+        <v>415.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="D68">
+        <v>890.8</v>
+      </c>
+      <c r="E68">
+        <v>390.3</v>
+      </c>
+      <c r="F68">
+        <v>890.8</v>
+      </c>
+      <c r="G68">
+        <v>49392.5</v>
+      </c>
+      <c r="H68">
+        <v>78323</v>
+      </c>
+      <c r="I68">
+        <v>36.1</v>
+      </c>
+      <c r="J68">
+        <v>2232.6</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>47223</v>
+      </c>
+      <c r="O68">
+        <v>57459.1</v>
+      </c>
+      <c r="P68">
+        <v>2232.6</v>
+      </c>
+      <c r="Q68">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="R68">
+        <v>43008</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>20863.900000000001</v>
+      </c>
+      <c r="U68">
+        <v>1631.1</v>
+      </c>
+      <c r="V68">
+        <v>507.3</v>
+      </c>
+      <c r="W68">
+        <v>-223.5</v>
+      </c>
+      <c r="X68">
+        <v>-234.4</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>11.4</v>
+      </c>
+      <c r="AA68">
+        <v>308.60000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>2939.2</v>
+      </c>
+      <c r="D69">
+        <v>900</v>
+      </c>
+      <c r="E69">
+        <v>359.7</v>
+      </c>
+      <c r="F69">
+        <v>900</v>
+      </c>
+      <c r="G69">
+        <v>46906.5</v>
+      </c>
+      <c r="H69">
+        <v>75791.199999999997</v>
+      </c>
+      <c r="I69">
+        <v>31.3</v>
+      </c>
+      <c r="J69">
+        <v>2233.1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>45672.9</v>
+      </c>
+      <c r="O69">
+        <v>53379.4</v>
+      </c>
+      <c r="P69">
+        <v>2233.1</v>
+      </c>
+      <c r="Q69">
+        <v>222.7</v>
+      </c>
+      <c r="R69">
+        <v>43100</v>
+      </c>
+      <c r="S69">
+        <v>2830</v>
+      </c>
+      <c r="T69">
+        <v>22411.8</v>
+      </c>
+      <c r="U69">
+        <v>1903.6</v>
+      </c>
+      <c r="V69">
+        <v>460.4</v>
+      </c>
+      <c r="W69">
+        <v>-223.9</v>
+      </c>
+      <c r="X69">
+        <v>-216.8</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>8</v>
+      </c>
+      <c r="AA69">
+        <v>2939.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>598.79999999999995</v>
+      </c>
+      <c r="D70">
+        <v>1109</v>
+      </c>
+      <c r="E70">
+        <v>444.1</v>
+      </c>
+      <c r="F70">
+        <v>1109</v>
+      </c>
+      <c r="G70">
+        <v>41054.800000000003</v>
+      </c>
+      <c r="H70">
+        <v>69919.3</v>
+      </c>
+      <c r="I70">
+        <v>25</v>
+      </c>
+      <c r="J70">
+        <v>2233.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>39445.300000000003</v>
+      </c>
+      <c r="O70">
+        <v>47146.5</v>
+      </c>
+      <c r="P70">
+        <v>2233.5</v>
+      </c>
+      <c r="Q70">
+        <v>-627.70000000000005</v>
+      </c>
+      <c r="R70">
+        <v>43190</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>22772.799999999999</v>
+      </c>
+      <c r="U70">
+        <v>784.6</v>
+      </c>
+      <c r="V70">
+        <v>825</v>
+      </c>
+      <c r="W70">
+        <v>-1424.8</v>
+      </c>
+      <c r="X70">
+        <v>-1435.3</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0.8</v>
+      </c>
+      <c r="AA70">
+        <v>598.79999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>566.1</v>
+      </c>
+      <c r="D71">
+        <v>1059.5999999999999</v>
+      </c>
+      <c r="E71">
+        <v>433.9</v>
+      </c>
+      <c r="F71">
+        <v>1059.5999999999999</v>
+      </c>
+      <c r="G71">
+        <v>40300.5</v>
+      </c>
+      <c r="H71">
+        <v>69199.3</v>
+      </c>
+      <c r="I71">
+        <v>27.8</v>
+      </c>
+      <c r="J71">
+        <v>3419</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>37179.599999999999</v>
+      </c>
+      <c r="O71">
+        <v>46075.7</v>
+      </c>
+      <c r="P71">
+        <v>3419</v>
+      </c>
+      <c r="Q71">
+        <v>1457.5</v>
+      </c>
+      <c r="R71">
+        <v>43281</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>23123.599999999999</v>
+      </c>
+      <c r="U71">
+        <v>1098.9000000000001</v>
+      </c>
+      <c r="V71">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="W71">
+        <v>-237.7</v>
+      </c>
+      <c r="X71">
+        <v>925</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>21.1</v>
+      </c>
+      <c r="AA71">
+        <v>566.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>411.8</v>
+      </c>
+      <c r="D72">
+        <v>904.2</v>
+      </c>
+      <c r="E72">
+        <v>386.3</v>
+      </c>
+      <c r="F72">
+        <v>904.2</v>
+      </c>
+      <c r="G72">
+        <v>41514.800000000003</v>
+      </c>
+      <c r="H72">
+        <v>70364.100000000006</v>
+      </c>
+      <c r="I72">
+        <v>53.9</v>
+      </c>
+      <c r="J72">
+        <v>3419.6</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>38154.1</v>
+      </c>
+      <c r="O72">
+        <v>47068.4</v>
+      </c>
+      <c r="P72">
+        <v>3419.6</v>
+      </c>
+      <c r="Q72">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="R72">
+        <v>43373</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>23295.7</v>
+      </c>
+      <c r="U72">
+        <v>1406.3</v>
+      </c>
+      <c r="V72">
+        <v>582.6</v>
+      </c>
+      <c r="W72">
+        <v>-237.6</v>
+      </c>
+      <c r="X72">
+        <v>-257.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0.1</v>
+      </c>
+      <c r="AA72">
+        <v>411.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>385.5</v>
+      </c>
+      <c r="D73">
+        <v>1236.5999999999999</v>
+      </c>
+      <c r="E73">
+        <v>553.29999999999995</v>
+      </c>
+      <c r="F73">
+        <v>1236.5999999999999</v>
+      </c>
+      <c r="G73">
+        <v>41886.699999999997</v>
+      </c>
+      <c r="H73">
+        <v>77475.7</v>
+      </c>
+      <c r="I73">
+        <v>116</v>
+      </c>
+      <c r="J73">
+        <v>3826.8</v>
+      </c>
+      <c r="K73">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>41272.6</v>
+      </c>
+      <c r="O73">
+        <v>51510.400000000001</v>
+      </c>
+      <c r="P73">
+        <v>4401</v>
+      </c>
+      <c r="Q73">
+        <v>-1652.5</v>
+      </c>
+      <c r="R73">
+        <v>43465</v>
+      </c>
+      <c r="S73">
+        <v>4590</v>
+      </c>
+      <c r="T73">
+        <v>25965.3</v>
+      </c>
+      <c r="U73">
+        <v>1374.5</v>
+      </c>
+      <c r="V73">
+        <v>510.4</v>
+      </c>
+      <c r="W73">
+        <v>-249.8</v>
+      </c>
+      <c r="X73">
+        <v>-312.2</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0.5</v>
+      </c>
+      <c r="AA73">
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>496.9</v>
+      </c>
+      <c r="D74">
+        <v>1176.3</v>
+      </c>
+      <c r="E74">
+        <v>559.5</v>
+      </c>
+      <c r="F74">
+        <v>1176.3</v>
+      </c>
+      <c r="G74">
+        <v>35605.199999999997</v>
+      </c>
+      <c r="H74">
+        <v>71614.5</v>
+      </c>
+      <c r="I74">
+        <v>65.3</v>
+      </c>
+      <c r="J74">
+        <v>4292</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-569.20000000000005</v>
+      </c>
+      <c r="N74">
+        <v>34272.400000000001</v>
+      </c>
+      <c r="O74">
+        <v>45428</v>
+      </c>
+      <c r="P74">
+        <v>5039.3</v>
+      </c>
+      <c r="Q74">
+        <v>-377.1</v>
+      </c>
+      <c r="R74">
+        <v>43555</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>26186.5</v>
+      </c>
+      <c r="U74">
+        <v>997.4</v>
+      </c>
+      <c r="V74">
+        <v>669.2</v>
+      </c>
+      <c r="W74">
+        <v>-892.1</v>
+      </c>
+      <c r="X74">
+        <v>-997.7</v>
+      </c>
+      <c r="Y74">
+        <v>695.2</v>
+      </c>
+      <c r="Z74">
+        <v>0.5</v>
+      </c>
+      <c r="AA74">
+        <v>496.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>513.79999999999995</v>
+      </c>
+      <c r="D75">
+        <v>1271</v>
+      </c>
+      <c r="E75">
+        <v>593.70000000000005</v>
+      </c>
+      <c r="F75">
+        <v>1271</v>
+      </c>
+      <c r="G75">
+        <v>34462.400000000001</v>
+      </c>
+      <c r="H75">
+        <v>70349.5</v>
+      </c>
+      <c r="I75">
+        <v>51.6</v>
+      </c>
+      <c r="J75">
+        <v>4072.9</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>32934.699999999997</v>
+      </c>
+      <c r="O75">
+        <v>43864.6</v>
+      </c>
+      <c r="P75">
+        <v>4742.6000000000004</v>
+      </c>
+      <c r="Q75">
+        <v>-57.2</v>
+      </c>
+      <c r="R75">
+        <v>43646</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>26484.9</v>
+      </c>
+      <c r="U75">
+        <v>937.7</v>
+      </c>
+      <c r="V75">
+        <v>473.7</v>
+      </c>
+      <c r="W75">
+        <v>-267.8</v>
+      </c>
+      <c r="X75">
+        <v>-489.6</v>
+      </c>
+      <c r="Y75">
+        <v>619.5</v>
+      </c>
+      <c r="Z75">
+        <v>31.2</v>
+      </c>
+      <c r="AA75">
+        <v>513.79999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>636.29999999999995</v>
+      </c>
+      <c r="D76">
+        <v>1275.3</v>
+      </c>
+      <c r="E76">
+        <v>545.70000000000005</v>
+      </c>
+      <c r="F76">
+        <v>1275.3</v>
+      </c>
+      <c r="G76">
+        <v>43692.3</v>
+      </c>
+      <c r="H76">
+        <v>79417.600000000006</v>
+      </c>
+      <c r="I76">
+        <v>61.5</v>
+      </c>
+      <c r="J76">
+        <v>3873.3</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>41913.5</v>
+      </c>
+      <c r="O76">
+        <v>52604.3</v>
+      </c>
+      <c r="P76">
+        <v>4525</v>
+      </c>
+      <c r="Q76">
+        <v>273.2</v>
+      </c>
+      <c r="R76">
+        <v>43738</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>26813.3</v>
+      </c>
+      <c r="U76">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="V76">
+        <v>810.2</v>
+      </c>
+      <c r="W76">
+        <v>-267.89999999999998</v>
+      </c>
+      <c r="X76">
+        <v>-490.2</v>
+      </c>
+      <c r="Y76">
+        <v>602.79999999999995</v>
+      </c>
+      <c r="Z76">
+        <v>10.8</v>
+      </c>
+      <c r="AA76">
+        <v>636.29999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>469.5</v>
+      </c>
+      <c r="D77">
+        <v>1135.5</v>
+      </c>
+      <c r="E77">
+        <v>491.8</v>
+      </c>
+      <c r="F77">
+        <v>1135.5</v>
+      </c>
+      <c r="G77">
+        <v>39567.800000000003</v>
+      </c>
+      <c r="H77">
+        <v>75215.3</v>
+      </c>
+      <c r="I77">
+        <v>61.9</v>
+      </c>
+      <c r="J77">
+        <v>3743.2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>38522.5</v>
+      </c>
+      <c r="O77">
+        <v>49056</v>
+      </c>
+      <c r="P77">
+        <v>4399.2</v>
+      </c>
+      <c r="Q77">
+        <v>340.5</v>
+      </c>
+      <c r="R77">
+        <v>43830</v>
+      </c>
+      <c r="S77">
+        <v>4360</v>
+      </c>
+      <c r="T77">
+        <v>26159.3</v>
+      </c>
+      <c r="U77">
+        <v>1551.4</v>
+      </c>
+      <c r="V77">
+        <v>719.7</v>
+      </c>
+      <c r="W77">
+        <v>-268.10000000000002</v>
+      </c>
+      <c r="X77">
+        <v>-363.3</v>
+      </c>
+      <c r="Y77">
+        <v>606.29999999999995</v>
+      </c>
+      <c r="Z77">
+        <v>50.5</v>
+      </c>
+      <c r="AA77">
+        <v>469.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>766.2</v>
+      </c>
+      <c r="D78">
+        <v>1518.5</v>
+      </c>
+      <c r="E78">
+        <v>799.7</v>
+      </c>
+      <c r="F78">
+        <v>1518.5</v>
+      </c>
+      <c r="G78">
+        <v>102416.6</v>
+      </c>
+      <c r="H78">
+        <v>137932.29999999999</v>
+      </c>
+      <c r="I78">
+        <v>74.3</v>
+      </c>
+      <c r="J78">
+        <v>3539.8</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-204.6</v>
+      </c>
+      <c r="N78">
+        <v>101053.7</v>
+      </c>
+      <c r="O78">
+        <v>111333.6</v>
+      </c>
+      <c r="P78">
+        <v>4174.8</v>
+      </c>
+      <c r="Q78">
+        <v>-699.8</v>
+      </c>
+      <c r="R78">
+        <v>43921</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>26598.7</v>
+      </c>
+      <c r="U78">
+        <v>851.7</v>
+      </c>
+      <c r="V78">
+        <v>757.1</v>
+      </c>
+      <c r="W78">
+        <v>-1197.5999999999999</v>
+      </c>
+      <c r="X78">
+        <v>-1413.9</v>
+      </c>
+      <c r="Y78">
+        <v>585.9</v>
+      </c>
+      <c r="Z78">
+        <v>-0.2</v>
+      </c>
+      <c r="AA78">
+        <v>766.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>503.3</v>
+      </c>
+      <c r="D79">
+        <v>1179.2</v>
+      </c>
+      <c r="E79">
+        <v>532.1</v>
+      </c>
+      <c r="F79">
+        <v>1179.2</v>
+      </c>
+      <c r="G79">
+        <v>81786.2</v>
+      </c>
+      <c r="H79">
+        <v>117214.8</v>
+      </c>
+      <c r="I79">
+        <v>88</v>
+      </c>
+      <c r="J79">
+        <v>3440.9</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>80201.399999999994</v>
+      </c>
+      <c r="O79">
+        <v>90375.9</v>
+      </c>
+      <c r="P79">
+        <v>4063.4</v>
+      </c>
+      <c r="Q79">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="R79">
+        <v>44012</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>26838.9</v>
+      </c>
+      <c r="U79">
+        <v>1405.4</v>
+      </c>
+      <c r="V79">
+        <v>986.8</v>
+      </c>
+      <c r="W79">
+        <v>-304</v>
+      </c>
+      <c r="X79">
+        <v>-396.6</v>
+      </c>
+      <c r="Y79">
+        <v>574.5</v>
+      </c>
+      <c r="Z79">
+        <v>-0.1</v>
+      </c>
+      <c r="AA79">
+        <v>503.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>411.7</v>
+      </c>
+      <c r="D80">
+        <v>1077.3</v>
+      </c>
+      <c r="E80">
+        <v>490.9</v>
+      </c>
+      <c r="F80">
+        <v>1077.3</v>
+      </c>
+      <c r="G80">
+        <v>90349.3</v>
+      </c>
+      <c r="H80">
+        <v>125758.8</v>
+      </c>
+      <c r="I80">
+        <v>99.5</v>
+      </c>
+      <c r="J80">
+        <v>3442.2</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>88630.9</v>
+      </c>
+      <c r="O80">
+        <v>98748.4</v>
+      </c>
+      <c r="P80">
+        <v>4074.3</v>
+      </c>
+      <c r="Q80">
+        <v>-73.2</v>
+      </c>
+      <c r="R80">
+        <v>44104</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>27010.400000000001</v>
+      </c>
+      <c r="U80">
+        <v>1332.1</v>
+      </c>
+      <c r="V80">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="W80">
+        <v>-304.10000000000002</v>
+      </c>
+      <c r="X80">
+        <v>-340.7</v>
+      </c>
+      <c r="Y80">
+        <v>581.9</v>
+      </c>
+      <c r="Z80">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA80">
+        <v>411.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>424</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>1095.3</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>461.3</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>1095.3</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>89283.9</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>124659.6</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>69.3</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>3443.8</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>88197.9</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>98308.1</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>4072</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>301.2</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S81">
         <v>4370</v>
       </c>
-      <c r="T42">
+      <c r="T81">
         <v>26351.5</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>1633.2</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>660.3</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-304.3</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-307</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>576</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>17.899999999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>424</v>
       </c>
     </row>
